--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_742.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_742.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d275366-Reviews-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>227</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Super-8-By-Wyndham-North-Hollywood.h916715.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_742.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_742.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="650">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1880 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r550944617-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>275366</t>
+  </si>
+  <si>
+    <t>550944617</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel night of our lives</t>
+  </si>
+  <si>
+    <t>We were flying out of Burbank airport early in the morning and needed an affordable option nearby.  Picked this place because of the pricing and "decent" reviews.  While I think everyone needs to do what works for them, I would never recommend this place to anyone.  We felt very unsafe in this neighborhood and EVERYTHING was so loud.  While it was NYE, I really couldn't tell if the neighborhood sounds were fireworks, gunshots, or both.  Added to that, the facility itself was very loud - could hear every movement of every guest.  It sounded like someone was grinding on something in the middle of the night, could hear footsteps, snoring, talking, etc.  It was awful and I would never, ever stay here again, despite the fact that the night manager was very nice and helpful.  And, finding Uber rides in this area can also be a challenge.  So, do yourself a favor and pay more for a nicer place that will also give you some peace of mind.  Book elsewhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were flying out of Burbank airport early in the morning and needed an affordable option nearby.  Picked this place because of the pricing and "decent" reviews.  While I think everyone needs to do what works for them, I would never recommend this place to anyone.  We felt very unsafe in this neighborhood and EVERYTHING was so loud.  While it was NYE, I really couldn't tell if the neighborhood sounds were fireworks, gunshots, or both.  Added to that, the facility itself was very loud - could hear every movement of every guest.  It sounded like someone was grinding on something in the middle of the night, could hear footsteps, snoring, talking, etc.  It was awful and I would never, ever stay here again, despite the fact that the night manager was very nice and helpful.  And, finding Uber rides in this area can also be a challenge.  So, do yourself a favor and pay more for a nicer place that will also give you some peace of mind.  Book elsewhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r539975844-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>539975844</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>This Super 8 was clean &amp; quiet. I usually stay at a Best Western nearby, but this hotel is cheaper. Close to Burbank airport. Free breakfast is a joke, but it usually is in a cheaper hotel. I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r534183708-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>534183708</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Filthy Place</t>
+  </si>
+  <si>
+    <t>The place looks decent from the outside but don't be fooled!  THE BAD:  The room was FILTHY!  Stayed in room 111.  Old and stained carpet.  Walls were dirty, scuffed, and need painting.  The furniture is old and worn out.  We couldn't get the drawers open very easily.  The bed spreads are old and stained.  The tile grout was nasty.  The sink stopper was broken.  The floors haven't been cleaned in who knows how long.  The edges of the carpet haven't been vacuumed in who knows how long.  Continental breakfast consisted of Frosted Flakes, Raisin Bran, Toast, Apples, Yogurt.  Coffee was horrible.  If you get to this place late, good luck finding a parking spot.  Which is surprising considering the place is a dump.  Must be the $125/night rate for Hollywood area.THE GOOD:  The night clerk was nice.  The room had nice plantation shutters.Overall:  This place is a dump.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The place looks decent from the outside but don't be fooled!  THE BAD:  The room was FILTHY!  Stayed in room 111.  Old and stained carpet.  Walls were dirty, scuffed, and need painting.  The furniture is old and worn out.  We couldn't get the drawers open very easily.  The bed spreads are old and stained.  The tile grout was nasty.  The sink stopper was broken.  The floors haven't been cleaned in who knows how long.  The edges of the carpet haven't been vacuumed in who knows how long.  Continental breakfast consisted of Frosted Flakes, Raisin Bran, Toast, Apples, Yogurt.  Coffee was horrible.  If you get to this place late, good luck finding a parking spot.  Which is surprising considering the place is a dump.  Must be the $125/night rate for Hollywood area.THE GOOD:  The night clerk was nice.  The room had nice plantation shutters.Overall:  This place is a dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r524989887-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>524989887</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Horrible experience the guy who checked me in was extremely...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible experience the guy who checked me in was extremely rude and unpleasant. I would never go there again. Bathroom was filthy and disgusting as if no one ever cleaned up </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r521233653-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>521233653</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Solid 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My son and i stayed overnight on August 32 when it was 115 degrees that day. The AC worked well although it was not turned on upon arrival and the bathroom was hot. The beds were comfortable, the area quiet, and the breakfast satisfactory. I would stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r512434747-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>512434747</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r492048281-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>492048281</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r489944659-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>489944659</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>A Quick Stay</t>
+  </si>
+  <si>
+    <t>I chose Super 8 North Hollywood because of its location, price, and prior experience from another Super 8 location. I was arriving at midnight and would leave early at 9 a.m. So, it was not mandatory that I find the hotel that fits perfectly.
+Check in was a bit worrysome. As I arrived there was no one at the front desk. I kept knocking but no one was there. I did hear the radio out back and finally the clerk did see me. He was nice and the check in was smooth. I did get the room I asked for on the second floor. I noticed that the hotel was also for smoking, which was a turn off for me. 
+Upon entering the room I noticed that it needed updating. I felt like it was stuck in the 1970's/80's. I have not seen furniture like that since I was 10! They did have wifi but the connection was terribly slow. TV was small. I did see a couple of stains but at least it was not on the bed. Although, I did not look under the sheets. I was tired and all I wanted to do was to sleep after a long drive.
+The place came with a continental breakfast. I was not happy with it actually. Yes, they do have continental breakfast, but the cereal was stale, they ran out of hard boiled eggs, the yogurt was frozen, and...I chose Super 8 North Hollywood because of its location, price, and prior experience from another Super 8 location. I was arriving at midnight and would leave early at 9 a.m. So, it was not mandatory that I find the hotel that fits perfectly.Check in was a bit worrysome. As I arrived there was no one at the front desk. I kept knocking but no one was there. I did hear the radio out back and finally the clerk did see me. He was nice and the check in was smooth. I did get the room I asked for on the second floor. I noticed that the hotel was also for smoking, which was a turn off for me. Upon entering the room I noticed that it needed updating. I felt like it was stuck in the 1970's/80's. I have not seen furniture like that since I was 10! They did have wifi but the connection was terribly slow. TV was small. I did see a couple of stains but at least it was not on the bed. Although, I did not look under the sheets. I was tired and all I wanted to do was to sleep after a long drive.The place came with a continental breakfast. I was not happy with it actually. Yes, they do have continental breakfast, but the cereal was stale, they ran out of hard boiled eggs, the yogurt was frozen, and the only bread there was two slices of dry white bread. I'm not sure if there was a crowd that came in before me to eat but there was nothing there. It was 8:00 a.m. Disappointed, I went back to the room and ate the frozen yogurt and the chips I brought for breakfast. I couldn't wait to check out.Thank goodness it was a QUICK STAY! I did like that there was parking available, and also the fact it's near the freeway access. What I did not like was that the neighborhood is a bit questionable. My advice to the management staff is to update the rooms and also kick it up a notch on the continental breakfast. Well, I do like the customer service. The reception desk was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I chose Super 8 North Hollywood because of its location, price, and prior experience from another Super 8 location. I was arriving at midnight and would leave early at 9 a.m. So, it was not mandatory that I find the hotel that fits perfectly.
+Check in was a bit worrysome. As I arrived there was no one at the front desk. I kept knocking but no one was there. I did hear the radio out back and finally the clerk did see me. He was nice and the check in was smooth. I did get the room I asked for on the second floor. I noticed that the hotel was also for smoking, which was a turn off for me. 
+Upon entering the room I noticed that it needed updating. I felt like it was stuck in the 1970's/80's. I have not seen furniture like that since I was 10! They did have wifi but the connection was terribly slow. TV was small. I did see a couple of stains but at least it was not on the bed. Although, I did not look under the sheets. I was tired and all I wanted to do was to sleep after a long drive.
+The place came with a continental breakfast. I was not happy with it actually. Yes, they do have continental breakfast, but the cereal was stale, they ran out of hard boiled eggs, the yogurt was frozen, and...I chose Super 8 North Hollywood because of its location, price, and prior experience from another Super 8 location. I was arriving at midnight and would leave early at 9 a.m. So, it was not mandatory that I find the hotel that fits perfectly.Check in was a bit worrysome. As I arrived there was no one at the front desk. I kept knocking but no one was there. I did hear the radio out back and finally the clerk did see me. He was nice and the check in was smooth. I did get the room I asked for on the second floor. I noticed that the hotel was also for smoking, which was a turn off for me. Upon entering the room I noticed that it needed updating. I felt like it was stuck in the 1970's/80's. I have not seen furniture like that since I was 10! They did have wifi but the connection was terribly slow. TV was small. I did see a couple of stains but at least it was not on the bed. Although, I did not look under the sheets. I was tired and all I wanted to do was to sleep after a long drive.The place came with a continental breakfast. I was not happy with it actually. Yes, they do have continental breakfast, but the cereal was stale, they ran out of hard boiled eggs, the yogurt was frozen, and the only bread there was two slices of dry white bread. I'm not sure if there was a crowd that came in before me to eat but there was nothing there. It was 8:00 a.m. Disappointed, I went back to the room and ate the frozen yogurt and the chips I brought for breakfast. I couldn't wait to check out.Thank goodness it was a QUICK STAY! I did like that there was parking available, and also the fact it's near the freeway access. What I did not like was that the neighborhood is a bit questionable. My advice to the management staff is to update the rooms and also kick it up a notch on the continental breakfast. Well, I do like the customer service. The reception desk was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r489875154-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>489875154</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r477303983-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>477303983</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>A place to sleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not as close to Universal Studios as I thought. It is only 5.6 miles but the traffic both ways was very slow. The area is not a tourist area. The hotel is clean and well maintained. The breakfast was barely able to be considered breakfast. They were not very helpful. If you need anything, towels, irons or anything, they will not bring it to you. When I went to get an iron the one they gave me was held together with scotch tape. This was one my wife was upset at me for booking, and she doesn't complain. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r466643583-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>466643583</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>When we arrived they did not have a 1st floor room as requested.  Since we cannot do stairs the desk clerk tried very hard and found us a room which actually was a smoking room.  We stayed three days and expected our reservation to be honored as ordered several weeks in advance.The neighborhood is questionable to say the least.  The motel looks just like the photo but the surroundings are unsavory.Breakfast was acceptable but not up to other Super 8 Motels we have stayed at in recent years.  Understandable since the property is foreign owned.  Way too many motels are being run by people who have no experience in American hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>When we arrived they did not have a 1st floor room as requested.  Since we cannot do stairs the desk clerk tried very hard and found us a room which actually was a smoking room.  We stayed three days and expected our reservation to be honored as ordered several weeks in advance.The neighborhood is questionable to say the least.  The motel looks just like the photo but the surroundings are unsavory.Breakfast was acceptable but not up to other Super 8 Motels we have stayed at in recent years.  Understandable since the property is foreign owned.  Way too many motels are being run by people who have no experience in American hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r466337824-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>466337824</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend getaway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place defiantly not like the pictures.  It was convenient. Neighbors stayed up most of the night and neighboring businesses were loud. I will probably pick a different one next time.  They did have complimentary breakfast but not much to write home about.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r437931275-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>437931275</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>I really love this place!</t>
+  </si>
+  <si>
+    <t>The staff are very kind and accommodating. I love how clean the room are and its so close to everything! They have jacuzzi rooms with the jacuzzi just a few steps from the bed at very affordable prices ! Smoking and non smoking rooms, free parking and breakfast!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r437498502-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>437498502</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Great Value but needs some fix up -</t>
+  </si>
+  <si>
+    <t>The hotel needs to be refurbished with new items and painting. the furnishing are very dingy and warn.  It is clean but does not feel that way because the rooms are not fresh in physical items, furniture, carpet and painting.  You should at least hire a repair person to constantly touch up the wear.  I have stayed many times in the Howard Johnson's Hotel at Receda, CA. (down the road)  During the week I not only see maids but a repair man always touching up the rooms - It is much sharper than Super 8</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r434183316-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>434183316</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Friendly Customer Service</t>
+  </si>
+  <si>
+    <t>Despite the creepy, flickering bathroom light in our room (203) and the occasional loud, mystery mechanical buzz, our stay was rather enjoyable. We didn't have enough towels our first night for the two of us but that really didnt bother me much. Our room came with a microwave and mini-fridge which came in handy for our left overs and the flat screen TV was awesome! A ton of channels to watch. The maids were also super nice and laid out our blanket we brought on the bed instead of the one that came with the room. The bed was also really big. More than enough room for the two of us. On our last day, we slept in and they let us stay past check out time (11:00) for 30 minutes which was super great. The neighborhood was alright. Not somewhere I would walk around. Parking is limited so if you don't plan on finding street parking then I suggest you come back a little early!All in all, I would stay here again. Thanks for the awesome customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Despite the creepy, flickering bathroom light in our room (203) and the occasional loud, mystery mechanical buzz, our stay was rather enjoyable. We didn't have enough towels our first night for the two of us but that really didnt bother me much. Our room came with a microwave and mini-fridge which came in handy for our left overs and the flat screen TV was awesome! A ton of channels to watch. The maids were also super nice and laid out our blanket we brought on the bed instead of the one that came with the room. The bed was also really big. More than enough room for the two of us. On our last day, we slept in and they let us stay past check out time (11:00) for 30 minutes which was super great. The neighborhood was alright. Not somewhere I would walk around. Parking is limited so if you don't plan on finding street parking then I suggest you come back a little early!All in all, I would stay here again. Thanks for the awesome customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r414619255-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>414619255</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Short stay at Super 8</t>
+  </si>
+  <si>
+    <t>We stayed one night at Super 8 North Hollywood.  The area surrounding the motel is not very appealing and almost feels unsafe.  The staff at this property are not exactly friendly and they don't make you feel welcomed.  The room was just ok, but there was an odor in the room that stayed the entire time.  We kept the air conditioner on to help with the odor, but the A/C unit did not look serviced in a while.  The free breakfast they advertise was super basic....white toast, cereal, and some yogurt.  The only positive thing I can say about it is the location in proximity to the freeway.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r413933672-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>413933672</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cozy hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cozy hotel. Recently updated. Value priced and friendly. Quick check in. Could benefit from a service elevator so guests are disturbed by rollaway beds being drug down the stairs. Close location to the 5 freeway. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r406537940-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>406537940</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>What Happened to This Property?</t>
+  </si>
+  <si>
+    <t>I visit Burbank a couple times each year and typically stay at this hotel - not anymore after my most recent stay. I understand this hotel is in California and close to Hollywood, but they aren't investing their $150 per night fee back into their rooms.
+The pillows provided on the bed are so thin you can achieve more thickness by rolling up a towel from the bathroom. The three pillows that were in my room had the hair from the previous guests on them - gross. It at least have me a chance to brush up on my CSI skills - the previous guests had brown and grey hair.
+The thermostat in the room has two settings: hot and muggy or freezing cold. Whichever setting you choose, you will be treated to an evening of listening to the equivalent of a rickety compressor from a 1970s pop machine struggling to operate during the night.
+The alarm clock does not completely shut off. In spite of your efforts, you will always be able to faintly hear the radio all the time. Be sure not to place your phone or anything electronic by the alarm clock, otherwise the radio sound will be replaced with static feedback. It is best just to unplug the alarm clock altogether.
+I appreciate the parking lot is very well lit with LED floodlights, but the wooden slat shutters in the room fall short of filtering out...I visit Burbank a couple times each year and typically stay at this hotel - not anymore after my most recent stay. I understand this hotel is in California and close to Hollywood, but they aren't investing their $150 per night fee back into their rooms.The pillows provided on the bed are so thin you can achieve more thickness by rolling up a towel from the bathroom. The three pillows that were in my room had the hair from the previous guests on them - gross. It at least have me a chance to brush up on my CSI skills - the previous guests had brown and grey hair.The thermostat in the room has two settings: hot and muggy or freezing cold. Whichever setting you choose, you will be treated to an evening of listening to the equivalent of a rickety compressor from a 1970s pop machine struggling to operate during the night.The alarm clock does not completely shut off. In spite of your efforts, you will always be able to faintly hear the radio all the time. Be sure not to place your phone or anything electronic by the alarm clock, otherwise the radio sound will be replaced with static feedback. It is best just to unplug the alarm clock altogether.I appreciate the parking lot is very well lit with LED floodlights, but the wooden slat shutters in the room fall short of filtering out the light regardless of which direction you adjust them. If you prefer your room to resemble any shade of darkness to get a good night sleep, you will struggle doing so at this hotel. Bring some clothes pins to hang some towels in front of the shutters to filter out the light.When you can't sleep, and need a break from reading, you might as well see what's on TV. The room comes with an alluring guide that teases you with 150 channels. The thing is, this particular hotel only gets a quarter of them.I used to enjoy staying at this hotel for their close proximity to the television studios. They took several steps backwards in my eye during this stay. Either that, or Room 208 is the only disaster out of the whole lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>I visit Burbank a couple times each year and typically stay at this hotel - not anymore after my most recent stay. I understand this hotel is in California and close to Hollywood, but they aren't investing their $150 per night fee back into their rooms.
+The pillows provided on the bed are so thin you can achieve more thickness by rolling up a towel from the bathroom. The three pillows that were in my room had the hair from the previous guests on them - gross. It at least have me a chance to brush up on my CSI skills - the previous guests had brown and grey hair.
+The thermostat in the room has two settings: hot and muggy or freezing cold. Whichever setting you choose, you will be treated to an evening of listening to the equivalent of a rickety compressor from a 1970s pop machine struggling to operate during the night.
+The alarm clock does not completely shut off. In spite of your efforts, you will always be able to faintly hear the radio all the time. Be sure not to place your phone or anything electronic by the alarm clock, otherwise the radio sound will be replaced with static feedback. It is best just to unplug the alarm clock altogether.
+I appreciate the parking lot is very well lit with LED floodlights, but the wooden slat shutters in the room fall short of filtering out...I visit Burbank a couple times each year and typically stay at this hotel - not anymore after my most recent stay. I understand this hotel is in California and close to Hollywood, but they aren't investing their $150 per night fee back into their rooms.The pillows provided on the bed are so thin you can achieve more thickness by rolling up a towel from the bathroom. The three pillows that were in my room had the hair from the previous guests on them - gross. It at least have me a chance to brush up on my CSI skills - the previous guests had brown and grey hair.The thermostat in the room has two settings: hot and muggy or freezing cold. Whichever setting you choose, you will be treated to an evening of listening to the equivalent of a rickety compressor from a 1970s pop machine struggling to operate during the night.The alarm clock does not completely shut off. In spite of your efforts, you will always be able to faintly hear the radio all the time. Be sure not to place your phone or anything electronic by the alarm clock, otherwise the radio sound will be replaced with static feedback. It is best just to unplug the alarm clock altogether.I appreciate the parking lot is very well lit with LED floodlights, but the wooden slat shutters in the room fall short of filtering out the light regardless of which direction you adjust them. If you prefer your room to resemble any shade of darkness to get a good night sleep, you will struggle doing so at this hotel. Bring some clothes pins to hang some towels in front of the shutters to filter out the light.When you can't sleep, and need a break from reading, you might as well see what's on TV. The room comes with an alluring guide that teases you with 150 channels. The thing is, this particular hotel only gets a quarter of them.I used to enjoy staying at this hotel for their close proximity to the television studios. They took several steps backwards in my eye during this stay. Either that, or Room 208 is the only disaster out of the whole lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r403007466-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>403007466</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>The property was basic. The pictures look better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What they offered as a continental breakfast was bread, yogurt, pre packed cinnamon roll and cereal, everyday. Machine orange juice and coffee. That was very poor. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r394402591-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>394402591</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r393237375-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>393237375</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r375192021-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>375192021</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Nice Motel for short stay!!!</t>
+  </si>
+  <si>
+    <t>Nice Motel in Los Angeles North close to Universal and Burbank. Regular service and the area, but you get a reasonable price, and good bed. The parking lot is at front of your room. You will receive a very basic continental breakfast and coffee included in the rate</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r373848499-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>373848499</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Was Super</t>
+  </si>
+  <si>
+    <t>This hotel is 15 minutes from Universal, and close to the Burbank Airport.  We arrived around 9:00pm and left around 10:00am.  The room was very nice looking, comfortable, and clean.  The price was very reasonable, and they gave a AARP discount.  The free breakfast was very adequate with toast, instant oatmeal, cereal and milk, coffee and juice, packaged cinnamon rolls and apples.  The employees were friendly and parking was free.  I had read parking is not enough, but I was lucky and found a spot right by my room.  I suggest this hotel highly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r368771111-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>368771111</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r360203444-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>360203444</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Front desk clerk unhelpful; Mgr helpful</t>
+  </si>
+  <si>
+    <t>I called the front desk prior to my arrival to check on the status of a medically needed shower chair. The front desk clerk claimed the motel didn't have any shower chairs. The mgr overheard +, noting I'm handicapped, offered an ADA room for an additional $8 + tax, along w/ the previously "non-existent" requested shower chair. While other Super 8 properties don't charge a higher rate for an ADA room, the N Hollywood Super 8 does. I opted to have access to the shower chair + safety bars in the shower which I needed despite the price increase. Our room was spacious + clean w/ a fridge/mini freezer to refreeze my ice packs for my neck + back. Unfortunately our sleep was interrupted by the herds of lead-shoed centipedes + elephants going up + down the staircase our room was under. Breakfast was the typical modest continental fare including 2 cold cereals, milk, oj, coffee, + packaged danish; I'm glad there was 1 adult cereal option. Handicapped parking was at the opposite end from where the ADA room is located; this could be an issue for some disabled persons + those who travel with them. The parking lot was small + crowded, which could be an issue for people going put to enjoy the Hollywood area night life. My BF/partner suggests the ice bucket, water glasses, + bath towels not be placed by or above the (especially no lid)...I called the front desk prior to my arrival to check on the status of a medically needed shower chair. The front desk clerk claimed the motel didn't have any shower chairs. The mgr overheard +, noting I'm handicapped, offered an ADA room for an additional $8 + tax, along w/ the previously "non-existent" requested shower chair. While other Super 8 properties don't charge a higher rate for an ADA room, the N Hollywood Super 8 does. I opted to have access to the shower chair + safety bars in the shower which I needed despite the price increase. Our room was spacious + clean w/ a fridge/mini freezer to refreeze my ice packs for my neck + back. Unfortunately our sleep was interrupted by the herds of lead-shoed centipedes + elephants going up + down the staircase our room was under. Breakfast was the typical modest continental fare including 2 cold cereals, milk, oj, coffee, + packaged danish; I'm glad there was 1 adult cereal option. Handicapped parking was at the opposite end from where the ADA room is located; this could be an issue for some disabled persons + those who travel with them. The parking lot was small + crowded, which could be an issue for people going put to enjoy the Hollywood area night life. My BF/partner suggests the ice bucket, water glasses, + bath towels not be placed by or above the (especially no lid) toilet at motels as it's not hygienic. The motel is located in an industrial area that is a short drive to the Hollywood Fwy + parts of Van Nuys. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I called the front desk prior to my arrival to check on the status of a medically needed shower chair. The front desk clerk claimed the motel didn't have any shower chairs. The mgr overheard +, noting I'm handicapped, offered an ADA room for an additional $8 + tax, along w/ the previously "non-existent" requested shower chair. While other Super 8 properties don't charge a higher rate for an ADA room, the N Hollywood Super 8 does. I opted to have access to the shower chair + safety bars in the shower which I needed despite the price increase. Our room was spacious + clean w/ a fridge/mini freezer to refreeze my ice packs for my neck + back. Unfortunately our sleep was interrupted by the herds of lead-shoed centipedes + elephants going up + down the staircase our room was under. Breakfast was the typical modest continental fare including 2 cold cereals, milk, oj, coffee, + packaged danish; I'm glad there was 1 adult cereal option. Handicapped parking was at the opposite end from where the ADA room is located; this could be an issue for some disabled persons + those who travel with them. The parking lot was small + crowded, which could be an issue for people going put to enjoy the Hollywood area night life. My BF/partner suggests the ice bucket, water glasses, + bath towels not be placed by or above the (especially no lid)...I called the front desk prior to my arrival to check on the status of a medically needed shower chair. The front desk clerk claimed the motel didn't have any shower chairs. The mgr overheard +, noting I'm handicapped, offered an ADA room for an additional $8 + tax, along w/ the previously "non-existent" requested shower chair. While other Super 8 properties don't charge a higher rate for an ADA room, the N Hollywood Super 8 does. I opted to have access to the shower chair + safety bars in the shower which I needed despite the price increase. Our room was spacious + clean w/ a fridge/mini freezer to refreeze my ice packs for my neck + back. Unfortunately our sleep was interrupted by the herds of lead-shoed centipedes + elephants going up + down the staircase our room was under. Breakfast was the typical modest continental fare including 2 cold cereals, milk, oj, coffee, + packaged danish; I'm glad there was 1 adult cereal option. Handicapped parking was at the opposite end from where the ADA room is located; this could be an issue for some disabled persons + those who travel with them. The parking lot was small + crowded, which could be an issue for people going put to enjoy the Hollywood area night life. My BF/partner suggests the ice bucket, water glasses, + bath towels not be placed by or above the (especially no lid) toilet at motels as it's not hygienic. The motel is located in an industrial area that is a short drive to the Hollywood Fwy + parts of Van Nuys. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r354107395-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>354107395</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>I won't return</t>
+  </si>
+  <si>
+    <t>Scary neighborhood.  Grafitti, security bars, etc evident all around.This motel has security bars on the office windows, and is walled in, with razor wire all around the perimeter.  The office reportedly wanted license plate numbers so that police patrolling the parking lot ("regular patrols" per the office) would know who belonged.  First room we were assigned reeked so bad of cigarette and other smoke, that with my asthma, it would have put me in the hospital had we tried to stay in it overnight-neither of us could even get beyond the entry and did not see the interior.  Second room we were offered smelled strongly of spray air freshener.  Carpet was filthy dirty and stained.  Arms on the chair were falling apart. Bedspread was stained. Discovered the (ground floor) window unlocked.We were not able to sleep well, because for two Caucasian women (who travel for work a lot, and stay in many hotels/motels every year) this was not a comfortable location-we simply did not feel  comfortable or safe.We spent the remaining 3 nights of our stay in the area, in another motel.  At least two others working the same job location as we were and were also booked here, refused to stay here at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scary neighborhood.  Grafitti, security bars, etc evident all around.This motel has security bars on the office windows, and is walled in, with razor wire all around the perimeter.  The office reportedly wanted license plate numbers so that police patrolling the parking lot ("regular patrols" per the office) would know who belonged.  First room we were assigned reeked so bad of cigarette and other smoke, that with my asthma, it would have put me in the hospital had we tried to stay in it overnight-neither of us could even get beyond the entry and did not see the interior.  Second room we were offered smelled strongly of spray air freshener.  Carpet was filthy dirty and stained.  Arms on the chair were falling apart. Bedspread was stained. Discovered the (ground floor) window unlocked.We were not able to sleep well, because for two Caucasian women (who travel for work a lot, and stay in many hotels/motels every year) this was not a comfortable location-we simply did not feel  comfortable or safe.We spent the remaining 3 nights of our stay in the area, in another motel.  At least two others working the same job location as we were and were also booked here, refused to stay here at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r352922517-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>352922517</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>I really liked this hotel, I went to a convention at Hilton Convention Center and it had the best location. Quiet place, clean hotel, confortable rooms. Good service, had to pay with cash and not card but it was ok. Great breakfast!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r346264803-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>346264803</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r330403571-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>330403571</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r330287628-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>330287628</t>
+  </si>
+  <si>
+    <t>Never again...</t>
+  </si>
+  <si>
+    <t>We stayed here as it was one of the cheaper hotels near Universal Studios and we would only be sleeping here.  We arrived late (around 11pm) and the first thing you notice is the area - looks industrial, especially at night time.  When I went to check in I found out that they had already charged the room to my card.  I think that if we had been any later they would have given our room away as they were fully booked.  The check in staff were enclosed behind a glass wall.  Didn't fill me with much confidence of it being in a safe area.The room itself was boiling hot as it was located on the top floor.  It smelled badly and was not clean.  When we opened the fridge it smelled like something had died in there.  We were too scared to walk on bare feet as the carpet looked filthy.  Couldn't get comfortable in the room - was one of our worst night's sleep on our trip.We did not have breakfast at the hotel although it was included.  Just couldn't do it...This was our first Super 8 Hotel, and have stayed at better ones since.  Would never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed here as it was one of the cheaper hotels near Universal Studios and we would only be sleeping here.  We arrived late (around 11pm) and the first thing you notice is the area - looks industrial, especially at night time.  When I went to check in I found out that they had already charged the room to my card.  I think that if we had been any later they would have given our room away as they were fully booked.  The check in staff were enclosed behind a glass wall.  Didn't fill me with much confidence of it being in a safe area.The room itself was boiling hot as it was located on the top floor.  It smelled badly and was not clean.  When we opened the fridge it smelled like something had died in there.  We were too scared to walk on bare feet as the carpet looked filthy.  Couldn't get comfortable in the room - was one of our worst night's sleep on our trip.We did not have breakfast at the hotel although it was included.  Just couldn't do it...This was our first Super 8 Hotel, and have stayed at better ones since.  Would never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r319851076-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>319851076</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Very good experience</t>
+  </si>
+  <si>
+    <t>I came here for a week's business, choosing the least expensive hotel in  the area, and I have been very surprised and pleased by my whole experience. The room was a good size, extremely clean, quiet enough, but most surprising is the fact that I've been able to get to central Los Angeles, Sunset strip and Santa Monica within 20 minutes or so every day. Even though it's much further from the centre than the places I've stayed before, incredibly, because it is so close to the freeway, the travel times have all been lower. It has also felt less frenetic than staying in Sunset strip or Silverlake, though it is certainly a less attractive area, because it's a lot less busy. In short, it was a very good today.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I came here for a week's business, choosing the least expensive hotel in  the area, and I have been very surprised and pleased by my whole experience. The room was a good size, extremely clean, quiet enough, but most surprising is the fact that I've been able to get to central Los Angeles, Sunset strip and Santa Monica within 20 minutes or so every day. Even though it's much further from the centre than the places I've stayed before, incredibly, because it is so close to the freeway, the travel times have all been lower. It has also felt less frenetic than staying in Sunset strip or Silverlake, though it is certainly a less attractive area, because it's a lot less busy. In short, it was a very good today.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r317842136-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>317842136</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I was there 5 out of 3 nights people were partying from 11 pm at night to 4 am and it was to the point me and my buddy could not sleep we went to tell the office about it nothing was done </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r315240460-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>315240460</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Super 8 north hollywood</t>
+  </si>
+  <si>
+    <t>I will start with the positives. The room was large and clean (although well used). The older gentleman on the counter was friendly and greeted us with a smile and a hello. It was a comfortable sleep and we had no major issues. The downsides were that the breakfast was very limited compared to other motel/hotels of a similar price range. The younger men on the counter (that we met, so apologies to others that we didn't meet) were not interested in welcoming us or even dragging their eyes from their phones whilst in our presence, The main downside to this motel was the area in which it was. There are many nicer areas to stay in and the surroundings are a bit downtrodden and rough. In fairness it was easy to get into town from here and we had no troubles, but we did stay indoors at night. So, as a round up, it is a perfectly good motel for the price, but the area, breakfast and enthusiasm could be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I will start with the positives. The room was large and clean (although well used). The older gentleman on the counter was friendly and greeted us with a smile and a hello. It was a comfortable sleep and we had no major issues. The downsides were that the breakfast was very limited compared to other motel/hotels of a similar price range. The younger men on the counter (that we met, so apologies to others that we didn't meet) were not interested in welcoming us or even dragging their eyes from their phones whilst in our presence, The main downside to this motel was the area in which it was. There are many nicer areas to stay in and the surroundings are a bit downtrodden and rough. In fairness it was easy to get into town from here and we had no troubles, but we did stay indoors at night. So, as a round up, it is a perfectly good motel for the price, but the area, breakfast and enthusiasm could be better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r309284380-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>309284380</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>It's a perfect average hotel.</t>
+  </si>
+  <si>
+    <t>As the title shows, this hotel just has everything you need and nothing more. 1. The location is near to universal studios, which was my primary reason to choose this hotel. The hollywood highway is just round the corner. 2. The sleep quality is very good. The beds were very comfortable. The AC was good. Fresh towels, clean bathroom. However the bath tub don't have a plug. 3. Best wi fi speed I've ever got in a hotel. 4. The breakfast has cereal and bread. That's it. Nothing else, no egg, no bacon, nothing else! Oh and a juice machine. But that's what most of the Super 8s are. 5. And there is no lift in the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>As the title shows, this hotel just has everything you need and nothing more. 1. The location is near to universal studios, which was my primary reason to choose this hotel. The hollywood highway is just round the corner. 2. The sleep quality is very good. The beds were very comfortable. The AC was good. Fresh towels, clean bathroom. However the bath tub don't have a plug. 3. Best wi fi speed I've ever got in a hotel. 4. The breakfast has cereal and bread. That's it. Nothing else, no egg, no bacon, nothing else! Oh and a juice machine. But that's what most of the Super 8s are. 5. And there is no lift in the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r301112747-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>301112747</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r293465333-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>293465333</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r288305049-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>288305049</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Excellent for the money!</t>
+  </si>
+  <si>
+    <t>We were very pleased with the accommodations.  The room was very clean and remarkably quiet for being on a busy street.  We would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r284047711-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>284047711</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Decent stay</t>
+  </si>
+  <si>
+    <t>We stayed here recently for 5 nights. The location was not the best but thankfully we used Uber to get around. Average breakfast. The gentleman who checked us in was really nice. We had to print some tickets off and a different staff member behind the counter flat out refused to help us. If we come back to LA, we would not stay here again based on the location.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r280189235-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>280189235</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Just as expected</t>
+  </si>
+  <si>
+    <t>I called to let them know we would be arriving late in the evening as some other reviews suggested. Good plan. We bought our rooms in Price line and although I stated there were 5 of us we got two rooms with two beds total. Thankfully they had a roll away bed but we were charged $10 for it. Breakfast was danishes, white bread, raisin bran, frosted flakes, oranges, apples, yogurt, coffee, orange juice and some other juice. Small lobby to eat in. Staff was pleasant but we had to get the roll away bed upstairs by ourselves. Rooms are dated but clean. Don't know crime rate in neighborhood but definitely not a touristy area. We stayed because we needed an inexpensive hotel near Burbank Airport. It was a10 minute drive. Small airport. We were to our gates in just a few minutes. It was awesome. MoreShow less</t>
+  </si>
+  <si>
+    <t>I called to let them know we would be arriving late in the evening as some other reviews suggested. Good plan. We bought our rooms in Price line and although I stated there were 5 of us we got two rooms with two beds total. Thankfully they had a roll away bed but we were charged $10 for it. Breakfast was danishes, white bread, raisin bran, frosted flakes, oranges, apples, yogurt, coffee, orange juice and some other juice. Small lobby to eat in. Staff was pleasant but we had to get the roll away bed upstairs by ourselves. Rooms are dated but clean. Don't know crime rate in neighborhood but definitely not a touristy area. We stayed because we needed an inexpensive hotel near Burbank Airport. It was a10 minute drive. Small airport. We were to our gates in just a few minutes. It was awesome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r277081336-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>277081336</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r276086742-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>276086742</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r271744828-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>271744828</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r264906111-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>264906111</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Good for the Price</t>
+  </si>
+  <si>
+    <t>Stayed a week as I was transitioning. The office help was great, breakfast mediocre and parking lot gets crowded especially weekends. Book early Look for special rates up to 20% off, AARP(carry your card)  or senior to get a substantial discount. The area is somewhat seedy but probably safe. If you go south to Sherman Way from the motel, (on Laurel CYN)  there are places to eat, (El Pollo Loco, Chinese restaurant, Carl's Jr etc). There is also a 99 Cents only store, K Mart and other stores within a few minutes away if you continue west .Going further south on Laurel Cyn (street of hotel), there is Sears and other stores including a cheap movie theatre.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Stayed a week as I was transitioning. The office help was great, breakfast mediocre and parking lot gets crowded especially weekends. Book early Look for special rates up to 20% off, AARP(carry your card)  or senior to get a substantial discount. The area is somewhat seedy but probably safe. If you go south to Sherman Way from the motel, (on Laurel CYN)  there are places to eat, (El Pollo Loco, Chinese restaurant, Carl's Jr etc). There is also a 99 Cents only store, K Mart and other stores within a few minutes away if you continue west .Going further south on Laurel Cyn (street of hotel), there is Sears and other stores including a cheap movie theatre.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r264576126-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>264576126</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>everything was excellent for the room to the housekeeping...</t>
+  </si>
+  <si>
+    <t>everything was excellent for the room to the housekeeping to the person that put out the breakfast. front desk was great.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r264356566-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>264356566</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Stopover</t>
+  </si>
+  <si>
+    <t>We drove from Palm Springs and stayed here the night before an early flight from Burbank. The staff at reception were friendly and checked us in with no problem. We were also given some help to find the nearest laundromat and how to find the rental car company the following morning. The room was neat and spacious, especially the bathroom area which is usually small in these types of accommodation, but not here.A previous reviewer complained about not being able to park their large truck - my solution is to not drive a large truck in the city... we were driving a camaro which isn't exactly small and had no problems parking.Free wifi which seems reasonably quick, and I can't comment on the breakfast as we had to leave early. This is an easy option for a quick stopover before flying out.MoreShow less</t>
+  </si>
+  <si>
+    <t>We drove from Palm Springs and stayed here the night before an early flight from Burbank. The staff at reception were friendly and checked us in with no problem. We were also given some help to find the nearest laundromat and how to find the rental car company the following morning. The room was neat and spacious, especially the bathroom area which is usually small in these types of accommodation, but not here.A previous reviewer complained about not being able to park their large truck - my solution is to not drive a large truck in the city... we were driving a camaro which isn't exactly small and had no problems parking.Free wifi which seems reasonably quick, and I can't comment on the breakfast as we had to leave early. This is an easy option for a quick stopover before flying out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r258213349-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>258213349</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>"Good" but Not a Category</t>
+  </si>
+  <si>
+    <t>Rating would be good but no selection in that category. The service was good. Staff polite and place clean. Wi-Fi was good. Location is okay but the area does not look good. A few blocks northwest is Sherman Way, a busy street.  Continental breakfast was average. I did not like that there were single size sheets on a king size bed so they were not tucked but draped across.  There are problems trying to get your Wyndham Rewards points if you are a member. Book early especially for weekends. Get an AARP card if you qualify and register through the Wyndham website. You could save up to 20% regularly.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r256452931-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>256452931</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>My privacy was invaded at the North Hollywood location on Laurel Canyon</t>
+  </si>
+  <si>
+    <t>Motel room was very clean and grounds were nice.  However, I placed my "do not disturb" sign the outside of the door as I left for work for the day. Upon my return to my room that night, I found all of my things were put in a big trash bag and other items stuffed in my suitcase. Many of my toiletries, food and drink in the room refrigerator were thrown away!  The clerk on staff told me that there was a glitch in the computer which had showed me as checked out.  I had everything in my room, clearly showing I'd be coming back.  No one from Motel 8 called me on my cell to confirm if I had abandoned my belongings or if I was coming back. I had pre-paid for all my nights so it wasn't due to lack of payment.  I felt very violated with a personal invasion of my privacy as my things were being thrown around and thrown away. I was also not offered any sort of discount for that night or future night.. I was offered an apology and I understand that people make mistakes, but this one was incompetent, careless, and not handled at all responsibly.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel room was very clean and grounds were nice.  However, I placed my "do not disturb" sign the outside of the door as I left for work for the day. Upon my return to my room that night, I found all of my things were put in a big trash bag and other items stuffed in my suitcase. Many of my toiletries, food and drink in the room refrigerator were thrown away!  The clerk on staff told me that there was a glitch in the computer which had showed me as checked out.  I had everything in my room, clearly showing I'd be coming back.  No one from Motel 8 called me on my cell to confirm if I had abandoned my belongings or if I was coming back. I had pre-paid for all my nights so it wasn't due to lack of payment.  I felt very violated with a personal invasion of my privacy as my things were being thrown around and thrown away. I was also not offered any sort of discount for that night or future night.. I was offered an apology and I understand that people make mistakes, but this one was incompetent, careless, and not handled at all responsibly.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r255484123-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>255484123</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Great place...great price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this was a clean and very nice room that was comfortable for 4 adults! They held it for our late arrival and we would definitely stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r249482397-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>249482397</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>Still can't beat the price</t>
+  </si>
+  <si>
+    <t>On this stay we opted for non smoking because my wife only smokes outside, anyway. That allowed us to get on the second floor further back. The room was much quieter with less traffic noise from the parking lot and people walking and talking outside our room. Again, the rooms were clean and housekeeping did there thing while we were out and about. If you are choosing a place because of the free breakfast, look elsewhere as there was even less offered than the last time we stayed and we chose to breakfast down the street. Another drawback is that there are no elevators to the second floor so that makes it a little tough for us old folks.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>On this stay we opted for non smoking because my wife only smokes outside, anyway. That allowed us to get on the second floor further back. The room was much quieter with less traffic noise from the parking lot and people walking and talking outside our room. Again, the rooms were clean and housekeeping did there thing while we were out and about. If you are choosing a place because of the free breakfast, look elsewhere as there was even less offered than the last time we stayed and we chose to breakfast down the street. Another drawback is that there are no elevators to the second floor so that makes it a little tough for us old folks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r248342457-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>248342457</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Clean and close to Universal Studios</t>
+  </si>
+  <si>
+    <t>Standard and clean Super 8 close to a lot of things in Hollywood area. Stayed one night in December 2014. I was confused when I arrived, because I thought I had booked a different Super 8 - but was pleased to see that this hotel was clean and even though the area is not the best I felt safe. The area is very noisy and there were a lot of noise but that is expected when you stay in a big city! Room were very clean and light! It is about 30 minutes drive to Farmers Market, 25 minutes to Hollywood Blvd. and 20 minutes to Universal Studios. Breakfast was standard Super 8 with cereals, toast and juice. WiFi was very fast! If you need a clean and cheap place to stay for a night or two this is the place for you!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Standard and clean Super 8 close to a lot of things in Hollywood area. Stayed one night in December 2014. I was confused when I arrived, because I thought I had booked a different Super 8 - but was pleased to see that this hotel was clean and even though the area is not the best I felt safe. The area is very noisy and there were a lot of noise but that is expected when you stay in a big city! Room were very clean and light! It is about 30 minutes drive to Farmers Market, 25 minutes to Hollywood Blvd. and 20 minutes to Universal Studios. Breakfast was standard Super 8 with cereals, toast and juice. WiFi was very fast! If you need a clean and cheap place to stay for a night or two this is the place for you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r246943106-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>246943106</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Excellent, clean, spacious hotel</t>
+  </si>
+  <si>
+    <t>Excellent hotel for people doing Universal Studios! We booked this hotel for whilst we were in LA to explore the surrounds and found it great. We did however find you NEED a car to stay here as area isn't the best for walking around safety wise (it feels a bit dodgy) and its too far from places you'd want to walk to anyway. Room itself was great, very spacious &amp; clean. Wifi excellent-best we got the whole trip even better than our 5 star hotels. Staff friendly and continental breakfast a plus. Great hotel if wanting somewhere cheap and have a car to get around. Hotel very safe would re-book whenever we go to the USA again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel for people doing Universal Studios! We booked this hotel for whilst we were in LA to explore the surrounds and found it great. We did however find you NEED a car to stay here as area isn't the best for walking around safety wise (it feels a bit dodgy) and its too far from places you'd want to walk to anyway. Room itself was great, very spacious &amp; clean. Wifi excellent-best we got the whole trip even better than our 5 star hotels. Staff friendly and continental breakfast a plus. Great hotel if wanting somewhere cheap and have a car to get around. Hotel very safe would re-book whenever we go to the USA again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r239482352-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>239482352</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r238928285-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>238928285</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>I enjoying staying here</t>
+  </si>
+  <si>
+    <t>I have stayed here twice this year. The first was time was back in May &amp; the owner was very friendly with me. He gave me room 216 that has a view of the hotel. The room was big for a king size bed. The second time was in September &amp;' this time I had 3 other people with me. I checked in late &amp; the guy who checked me in was rude. I asked him if the room he gave me was available the next few nights because i had only booked it for one night. He wouldn't give me answer. He would just tell me to call back. So i would. &amp; he kept telling me to call back over &amp; over again. After half an hour i grew tried of him telling me to call back. The next morning the owner was there &amp;' he was alot more helpful. Gave me a straight answer. Other than that i enjoy staying here. I would keep coming back. I like that the rooms are affordable &amp; clean. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here twice this year. The first was time was back in May &amp; the owner was very friendly with me. He gave me room 216 that has a view of the hotel. The room was big for a king size bed. The second time was in September &amp;' this time I had 3 other people with me. I checked in late &amp; the guy who checked me in was rude. I asked him if the room he gave me was available the next few nights because i had only booked it for one night. He wouldn't give me answer. He would just tell me to call back. So i would. &amp; he kept telling me to call back over &amp; over again. After half an hour i grew tried of him telling me to call back. The next morning the owner was there &amp;' he was alot more helpful. Gave me a straight answer. Other than that i enjoy staying here. I would keep coming back. I like that the rooms are affordable &amp; clean. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r238187296-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>238187296</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Needed a clean decent place to stay just for the night. Rooms are big, clean and well appointed. Continent breakfast was just the basics but for the price of the room who cares! Had adjoining rooms and both were clean and well stocked with towels. Nice table and chairs for eating in room. Our room was big enough to accommodate all four of us to eat a decent pizza and cajun wings dinner delivered within half hour of ordering from local eatery. Being close to freeways was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r232444319-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>232444319</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r227616263-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>227616263</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>very good motel</t>
+  </si>
+  <si>
+    <t>worth the price, the room was clean and wide. the breakfast was less than basic and the coffee was horrible but we didn't count on it. the location is good, 10 min from Universal studios and 20-30 min from downtown LA. 1 hour from Malibu.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r225808392-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>225808392</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r217070951-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>217070951</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Great safe affordable place</t>
+  </si>
+  <si>
+    <t>We had a great time at this Super 8. We did not spend much time in the room however it was huge and beds were comfy! Breakfast was simple and dining area was clean. The only thing that I would change here is the carpet. It was sticky :( But for the price, it is an amazing hotel!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r213396431-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>213396431</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>The rooms were bigger than expected. They were clean. The staff were very friendly during check in and check out. The beds were comfortable. This is a great place to stay when visiting Hollywood or surrounding areas for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Super 8 by Wyndham North Hollywood, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>The rooms were bigger than expected. They were clean. The staff were very friendly during check in and check out. The beds were comfortable. This is a great place to stay when visiting Hollywood or surrounding areas for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r210605849-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>210605849</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r203706501-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>203706501</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r203641341-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>203641341</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>If you are visiting LA with a car (rental or your own...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are visiting LA with a car (rental or your own), this is a great place to stay and save. Hotels close to Hollywood blvd is very expensive. But, this hotel should improve their breakfast. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r202979727-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>202979727</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r198693267-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>198693267</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Good Deal, superior housekeeping, friendly staff</t>
+  </si>
+  <si>
+    <t>The desk staff, especially the younger guy who works in the evening, are friendly and helpful. It's nice to be greeted with a genuine smile!
+The rooms are a bit dates but impeccably clean. They have just removed the old drapes and installed shutter-style doors over the window with slats that can be easily adjusted from very dark to wide open, and tilted to let in light without compromising privacy. The TV is an old CRT unit, but the channels are clear and it shows the name of the program on each channel (kind of a magic feature on such an old TV).
+The internet is available but not fast, even in the daytime when there are only a few cars in the lot.
+Parking is a bit challenging late at night because there don't seem to be as many spaces as guest rooms for some reason. (This is a motel, and not in the middle of town, so it seems that nearly every guest would need a parking spot.)
+The breakfast is average as free motel breakfasts go.
+The thing I remember most about the stay is how superior the housekeeping was. They really got every detail when they cleaned the room. This shouldn't be so remarkable, but after staying at a La Quinta property (where I have never found a sparkling clean room), it reinforces what a good job they do at Super 8.
+As for the neighborhood,...The desk staff, especially the younger guy who works in the evening, are friendly and helpful. It's nice to be greeted with a genuine smile!The rooms are a bit dates but impeccably clean. They have just removed the old drapes and installed shutter-style doors over the window with slats that can be easily adjusted from very dark to wide open, and tilted to let in light without compromising privacy. The TV is an old CRT unit, but the channels are clear and it shows the name of the program on each channel (kind of a magic feature on such an old TV).The internet is available but not fast, even in the daytime when there are only a few cars in the lot.Parking is a bit challenging late at night because there don't seem to be as many spaces as guest rooms for some reason. (This is a motel, and not in the middle of town, so it seems that nearly every guest would need a parking spot.)The breakfast is average as free motel breakfasts go.The thing I remember most about the stay is how superior the housekeeping was. They really got every detail when they cleaned the room. This shouldn't be so remarkable, but after staying at a La Quinta property (where I have never found a sparkling clean room), it reinforces what a good job they do at Super 8.As for the neighborhood, it's not a place you want to stroll around at night but I never felt unsafe in or around the hotel. And the property has only one way in and out, which is right outside the window of the front desk, which is staffed 24/7.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>General M, General Manager at Super 8 by Wyndham North Hollywood, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>The desk staff, especially the younger guy who works in the evening, are friendly and helpful. It's nice to be greeted with a genuine smile!
+The rooms are a bit dates but impeccably clean. They have just removed the old drapes and installed shutter-style doors over the window with slats that can be easily adjusted from very dark to wide open, and tilted to let in light without compromising privacy. The TV is an old CRT unit, but the channels are clear and it shows the name of the program on each channel (kind of a magic feature on such an old TV).
+The internet is available but not fast, even in the daytime when there are only a few cars in the lot.
+Parking is a bit challenging late at night because there don't seem to be as many spaces as guest rooms for some reason. (This is a motel, and not in the middle of town, so it seems that nearly every guest would need a parking spot.)
+The breakfast is average as free motel breakfasts go.
+The thing I remember most about the stay is how superior the housekeeping was. They really got every detail when they cleaned the room. This shouldn't be so remarkable, but after staying at a La Quinta property (where I have never found a sparkling clean room), it reinforces what a good job they do at Super 8.
+As for the neighborhood,...The desk staff, especially the younger guy who works in the evening, are friendly and helpful. It's nice to be greeted with a genuine smile!The rooms are a bit dates but impeccably clean. They have just removed the old drapes and installed shutter-style doors over the window with slats that can be easily adjusted from very dark to wide open, and tilted to let in light without compromising privacy. The TV is an old CRT unit, but the channels are clear and it shows the name of the program on each channel (kind of a magic feature on such an old TV).The internet is available but not fast, even in the daytime when there are only a few cars in the lot.Parking is a bit challenging late at night because there don't seem to be as many spaces as guest rooms for some reason. (This is a motel, and not in the middle of town, so it seems that nearly every guest would need a parking spot.)The breakfast is average as free motel breakfasts go.The thing I remember most about the stay is how superior the housekeeping was. They really got every detail when they cleaned the room. This shouldn't be so remarkable, but after staying at a La Quinta property (where I have never found a sparkling clean room), it reinforces what a good job they do at Super 8.As for the neighborhood, it's not a place you want to stroll around at night but I never felt unsafe in or around the hotel. And the property has only one way in and out, which is right outside the window of the front desk, which is staffed 24/7.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r196377745-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>196377745</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r195827348-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>195827348</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r190968249-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190968249</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>Motel was clean and the staff was very helpful. The cotinental breakfast didn't run out, but was not as extensive as some of the places we have stayed. For our purpose of visiting family living close by, it was a good fit and we plan to stay there in the future.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r189777743-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>189777743</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r188890547-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>188890547</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r184890036-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>184890036</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r184836025-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>184836025</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>Very Happy with the Accomodation</t>
+  </si>
+  <si>
+    <t>We stayed at this motel for 8 nights and were very Happy. The staff were very friendly and helpful and always had a smile on their face. The room was a bit dated and old but it was clean and it had a bath. The bed was comfy and the tv and air conditioning worked. Also it had a fridge. What more could you ask for, for the price.  It was in a great location with the subway only a 2-3 min walk away. Just perfect.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r181753863-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>181753863</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Pretty basic but not bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairly average super 8 here. Parking lot was small and not really able to fit vehicles that are towing anything but the manager was cool and let us park on site in a no parking area as long as cars could still get around us. Rooms were a bit small but they we're clean at least. One bed had a noticeable sag on one side. It's as if a very large person sat on the edge of it every day since the mattress was made.  Overall not bad though. </t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r175994352-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>175994352</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Clean, pretty rooms and pleasant management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicely appointed, clean rooms and a fresh, comforting feel. Breakfast could have been better, the bagels and donuts seemed to be day-olds, but not a bug deal. Everything else was great! The entire property exceeded my expectations. </t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r172424570-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>172424570</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Best for your $</t>
+  </si>
+  <si>
+    <t>For the price the cleanliness is great and a nice stay. Front desk guy hated his job for some reason, def not a people person then why does he do that job? Far from Hollywood have to take bus, and at night impossible to get taxi they drive away. Only thing is on laurel and chandler the 7/11 guys were awesome called us a taxi every night no problem. Bad area for families.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r169073308-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>169073308</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r166084415-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166084415</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>NoHo Nights</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Super 8---it was quiet and comfortable. The owner/manager is very attentive in keeping everything on the property in tip top shape. It is very clean, well taken care of and very organized. The area of town at first seemed somewhat questionable, but it was actually a very pleasant part of the city, and very convenient for our 5 day stay.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r165558790-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>165558790</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Pleasant surprise H</t>
+  </si>
+  <si>
+    <t>Having read the reviews for this hotel, we were a bit apprehensive about staying here. However, upon arriving, we found it to be a pleasant surprise. The staff seemed really friendly and helpful. And the room... Wow! It was huge! We had booked a king room, but we werent expecting this. A king bed, jacuzzi, big TV and a nice bathroom too. We really loved it. The only negative we had about the hotel was its location. The neighbourhood was a bit shady. We didn't feel comfortable wandering around there. As a result, we got cabs to most places. It was expensive but we felt safer this way. However, the hotel is really close to Hollywood, Universal Studios and Warner Bros Studios. :) breakfast was a bit plain with just doughnuts and bagels, but it was okay. We only ate here a couple of our six days so we didn't really mind.Overall, we had a really good time and if need be, we would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Having read the reviews for this hotel, we were a bit apprehensive about staying here. However, upon arriving, we found it to be a pleasant surprise. The staff seemed really friendly and helpful. And the room... Wow! It was huge! We had booked a king room, but we werent expecting this. A king bed, jacuzzi, big TV and a nice bathroom too. We really loved it. The only negative we had about the hotel was its location. The neighbourhood was a bit shady. We didn't feel comfortable wandering around there. As a result, we got cabs to most places. It was expensive but we felt safer this way. However, the hotel is really close to Hollywood, Universal Studios and Warner Bros Studios. :) breakfast was a bit plain with just doughnuts and bagels, but it was okay. We only ate here a couple of our six days so we didn't really mind.Overall, we had a really good time and if need be, we would probably stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r162534101-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162534101</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>Quite happy with this hotel for the price+ Near the attractions+ Free parking+ Friendly staff+ Clean and safe rooms+ Good coffee and Danish in the morning- Noisy road outsideOverall, a very satisfying stay indeed</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r157887693-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157887693</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Not a 5 stars.. good hotel for the price</t>
+  </si>
+  <si>
+    <t>Of course is not a fancy hotel at all, but the service was good, the room as well have the basics and a little bit more, fridge, microwave, coffe maker, only complaint the "free breakfast" was just bagels and donnuts... so, would be nice a little bit more that allow you to choose! by the rest was well, if you just need a decent and cheap place to spend some nights in LA area close to hollywood and universal studios!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r156068872-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156068872</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r154546487-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>154546487</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r147566343-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>147566343</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>Value place near Universal Studios</t>
+  </si>
+  <si>
+    <t>We stayed here for a night stay during our trip to Universal studios. First looking at the Area the place did not seem great, but our stay here was good. It was a clean place, no issues with it. This place is very near to Universal studios so a great value stay if you are planning to visit Universal Studios.Morning breakfast was not great, but for this value and quality of stay I wouldn't complain. I would stay here again if I visit Universal Studios again.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r146084033-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>146084033</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>Enjoyable stay, except for breakfast</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights at this motel on recent family trip (two rooms on upper floor in rear).  Location is close to CA-170, leading to U.S. 101 and other L.A. area highways.  Business area + residential neighborhoods surrounding motel - did not feel unsafe.  Facility seemed to be well maintained.  Entrance is on a main street - leads into a courtyard area behind the motel office.  No road or other noise was noticed during our stay.  Able to get a parking space each night, but lot is small and stayed full at night.Rooms were clean and adequately furnished, including a microwave and refrigerator.  The only significant concern was the continental breakfast:  plenty of sugary donuts, only a few bagels (that disappeared quickly), no toaster, milk, cereal, fruit, or half + half.  Recommend upgrading this area of service, even if the rates have to be raised a little.  Otherwise, an enjoyable stay at this facility!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights at this motel on recent family trip (two rooms on upper floor in rear).  Location is close to CA-170, leading to U.S. 101 and other L.A. area highways.  Business area + residential neighborhoods surrounding motel - did not feel unsafe.  Facility seemed to be well maintained.  Entrance is on a main street - leads into a courtyard area behind the motel office.  No road or other noise was noticed during our stay.  Able to get a parking space each night, but lot is small and stayed full at night.Rooms were clean and adequately furnished, including a microwave and refrigerator.  The only significant concern was the continental breakfast:  plenty of sugary donuts, only a few bagels (that disappeared quickly), no toaster, milk, cereal, fruit, or half + half.  Recommend upgrading this area of service, even if the rates have to be raised a little.  Otherwise, an enjoyable stay at this facility!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r144699885-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>144699885</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Good stay!</t>
+  </si>
+  <si>
+    <t>Had no idea where to stay coming from Minnesota. The staff was very helpful The price was right! Location was great for sightseeing! Would recommend to people wanting a reasonable and decent place to sleep.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r141707055-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>141707055</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Tiny but cheap</t>
+  </si>
+  <si>
+    <t>I stayed at this location last Thursday night. The hotel was completely booked. The air did not work correctly which made for a miserable night. Other than that everything was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r141697907-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>141697907</t>
+  </si>
+  <si>
+    <t>Decent price on a budget and for this area</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights Sept 20 thru 23rd 2012 on a trip for my daughters graduation from Art School and for a trip to Universal Studios. The room was decent size, clean bathroom. The carpet could have been cleaner but wasn't disgusting. It was stuffy and smelled when we entered. Glad I brought a scented candle. 
+It was an extremely hot day in LA when we arrived. 100 degrees. The air worked well once it got going - other than if the drapes were closed all the way it blew up them instead of the room.  I was supposed to have a microwave but didn't. We ate out so that didn't matter much. 
+The bed was ok. The sheets were clean and crisp first night. They had a few little stains that looked like rust or something the second night. Took notice but not enough for us to call and have them re-done as they appeared and smelled clean, just stained. 
+They cleaned our room each day and replaced the towels. There was a small coffee maker and coffee was replenished each day.
+It is agreed with other reviews that the "continental breakfast" is pathetic. Literally day old donuts Im convinced they partner with the bakery across the street to get rid of old donuts. I tried to be a good sport and try a "jelly filled" one to only have it leave a big dry dough ball (with...Stayed here for 3 nights Sept 20 thru 23rd 2012 on a trip for my daughters graduation from Art School and for a trip to Universal Studios. The room was decent size, clean bathroom. The carpet could have been cleaner but wasn't disgusting. It was stuffy and smelled when we entered. Glad I brought a scented candle. It was an extremely hot day in LA when we arrived. 100 degrees. The air worked well once it got going - other than if the drapes were closed all the way it blew up them instead of the room.  I was supposed to have a microwave but didn't. We ate out so that didn't matter much. The bed was ok. The sheets were clean and crisp first night. They had a few little stains that looked like rust or something the second night. Took notice but not enough for us to call and have them re-done as they appeared and smelled clean, just stained. They cleaned our room each day and replaced the towels. There was a small coffee maker and coffee was replenished each day.It is agreed with other reviews that the "continental breakfast" is pathetic. Literally day old donuts Im convinced they partner with the bakery across the street to get rid of old donuts. I tried to be a good sport and try a "jelly filled" one to only have it leave a big dry dough ball (with no jelly) in my throat that hurt and almost choked me when i swallowed it. Felt it scrape all the way down. Didn't try that again during our stay. The neighborhood is a bit rough. I wouldn't walk it. The man "Raj" who checked us in was ok. Not rude like others had reported.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights Sept 20 thru 23rd 2012 on a trip for my daughters graduation from Art School and for a trip to Universal Studios. The room was decent size, clean bathroom. The carpet could have been cleaner but wasn't disgusting. It was stuffy and smelled when we entered. Glad I brought a scented candle. 
+It was an extremely hot day in LA when we arrived. 100 degrees. The air worked well once it got going - other than if the drapes were closed all the way it blew up them instead of the room.  I was supposed to have a microwave but didn't. We ate out so that didn't matter much. 
+The bed was ok. The sheets were clean and crisp first night. They had a few little stains that looked like rust or something the second night. Took notice but not enough for us to call and have them re-done as they appeared and smelled clean, just stained. 
+They cleaned our room each day and replaced the towels. There was a small coffee maker and coffee was replenished each day.
+It is agreed with other reviews that the "continental breakfast" is pathetic. Literally day old donuts Im convinced they partner with the bakery across the street to get rid of old donuts. I tried to be a good sport and try a "jelly filled" one to only have it leave a big dry dough ball (with...Stayed here for 3 nights Sept 20 thru 23rd 2012 on a trip for my daughters graduation from Art School and for a trip to Universal Studios. The room was decent size, clean bathroom. The carpet could have been cleaner but wasn't disgusting. It was stuffy and smelled when we entered. Glad I brought a scented candle. It was an extremely hot day in LA when we arrived. 100 degrees. The air worked well once it got going - other than if the drapes were closed all the way it blew up them instead of the room.  I was supposed to have a microwave but didn't. We ate out so that didn't matter much. The bed was ok. The sheets were clean and crisp first night. They had a few little stains that looked like rust or something the second night. Took notice but not enough for us to call and have them re-done as they appeared and smelled clean, just stained. They cleaned our room each day and replaced the towels. There was a small coffee maker and coffee was replenished each day.It is agreed with other reviews that the "continental breakfast" is pathetic. Literally day old donuts Im convinced they partner with the bakery across the street to get rid of old donuts. I tried to be a good sport and try a "jelly filled" one to only have it leave a big dry dough ball (with no jelly) in my throat that hurt and almost choked me when i swallowed it. Felt it scrape all the way down. Didn't try that again during our stay. The neighborhood is a bit rough. I wouldn't walk it. The man "Raj" who checked us in was ok. Not rude like others had reported.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r141610558-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>141610558</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>We would recommend this hotel to anyone, the rooms and surroundings are kept extremely clean and the management and staff are so helpful, courteous and friendly. The hotel is not in the best location for restaurants etc. and as we were without a vehicle we had to rely on public transport, after a couple of minor hiccups this turned out to be an excellent way to move around as we did for 4 days. We only had to walk across the road at the corner and onto the 230 bus and from there it was fairly easy for us.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r135509136-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135509136</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Less expensive than most</t>
+  </si>
+  <si>
+    <t>If you don't want to pay an arm and a leg in Los Angeles, then this is the place.  One of the less expensive motels in Burbank/Glendale/N. Hollywood area.  Neighborhood isn't great, but there is an iHop close by and the motel location is close to everywhere we needed to be. Rooms were clean &amp; equipped with micro and little fridge. Cleaning staff was very friendly and helpful. Continental breakfast had few choices, none of which were very good.  I drink decaf coffee, which isn't available in the rooms or in the breakfast area.  All in all, I would stay here again because of the price and location.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r135411846-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135411846</t>
+  </si>
+  <si>
+    <t>Very Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We had a spacious, clean and comfortable room during our stay.  I commented to my family that the sheets felt exceptionally crisp and fresh.  The location was very convenient to Burbank, Universal and Hollywood.  Although the neighborhood was not wonderful, the hotel is built in a U shape with just a driveway access and doors and parking are inside the U, so we felt safe and protected.  The continental breakfast was bagels (no cream cheese) and pastries, but they were nice ones from a bakery and not just your grocery store variety.  There was a microwave and refrigerator in our room.  The check in and check out process was quick and smooth and accurate.  We would stay in this property again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a spacious, clean and comfortable room during our stay.  I commented to my family that the sheets felt exceptionally crisp and fresh.  The location was very convenient to Burbank, Universal and Hollywood.  Although the neighborhood was not wonderful, the hotel is built in a U shape with just a driveway access and doors and parking are inside the U, so we felt safe and protected.  The continental breakfast was bagels (no cream cheese) and pastries, but they were nice ones from a bakery and not just your grocery store variety.  There was a microwave and refrigerator in our room.  The check in and check out process was quick and smooth and accurate.  We would stay in this property again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r133898451-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>133898451</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>STAY AWAY! Charged for a reservation never made</t>
+  </si>
+  <si>
+    <t>I have been charged for a reservation that I never made. I stayed in many Super 8 hotels and they are the worst. Do not expect the hotel chain to help you with your billing issues either. Hotel chain simply states that it is the cusomers responsibility to know who you talk to in the hotel. When ask for an explanation of the charge they simply stated that that how the hotel does things! WORST Hotel Chain EVER! Stay Away!  They do not care about their Customers!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r122108273-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>122108273</t>
+  </si>
+  <si>
+    <t>12/26/2011</t>
+  </si>
+  <si>
+    <t>liar</t>
+  </si>
+  <si>
+    <t>I travelled w/ my 1 1/2 year old and my husband, I booked for a non -smoking room w/ microwave and fridge. On the morning of my reservation day, I got a call from them saying there was a problem w/ my reservation. I called them back and said everything is "ok". We checked in, when I opened the door, I smell cigarette smoke, found 2 ash trays and matches in the room, no non-smoking sign on the door and no microwave. My husband went back to the office and they insisted that it is a non-smoking room. For a non-smoking family, cigarette smoke is very distinct, IT WAS A HORRIBLE STAY. I won't even give this place a 1.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I travelled w/ my 1 1/2 year old and my husband, I booked for a non -smoking room w/ microwave and fridge. On the morning of my reservation day, I got a call from them saying there was a problem w/ my reservation. I called them back and said everything is "ok". We checked in, when I opened the door, I smell cigarette smoke, found 2 ash trays and matches in the room, no non-smoking sign on the door and no microwave. My husband went back to the office and they insisted that it is a non-smoking room. For a non-smoking family, cigarette smoke is very distinct, IT WAS A HORRIBLE STAY. I won't even give this place a 1.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r121672820-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>121672820</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Well furnished, quiet and good value</t>
+  </si>
+  <si>
+    <t>I stayed here one night and found the room very well furnished and in great condition.  It was located away from the street (Laurel Canyon) and was quiet at night, a blessing in L.A.  There was a fridge and coffee maker in the room.  The Wi-Fi worked well and there is also an ethernet connection.  Breakfast offered donuts, bagels, coffee and juice and was satisfactory if minimal.  The staff were friendly and we had a decent rate.  This is a very good hotel, well-maintained in a central location.  I would prefer to stay here if I am every in Los Angeles again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r120562168-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>120562168</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised.</t>
+  </si>
+  <si>
+    <t>We stayed here because it was a quick drive to Universal Studios.  The grounds and parking lot were clean, no litter or debris.  The office was spotless.  There are awards for quality from Super 8 corporate hanging on the wall behind the front desk.  Check in was quick and easy.  The room was on the first floor, so we heard a little noise from upstairs but they were quiet after 10 PM.  The room was quite large (maybe because we were on the corner) and there was plenty of room for suitcases and hanging items.  Large enough for my 10 year old to run in circles and do cartwheels, lol.  The door was secure with a deadbolt as well as a chain lock.
+  The carpet and bedding looked newer.  The beds were quite comfortable, firm with no sagging, clean and the sheets were fresh.  No signs of bedbugs on the mattresses or the surrounding area.  AC/heater/fan worked well. The refridgerator, microwave and coffee maker (included in the standard room) worked well and were clean.  The towels were soft and smelled fresh.  Tub/shower combo and toilet in bathroom, seperate vanity outside the bathroom.  Hair dryer by vanity.  Adequate shampoo, hand soap, body soap, coffee etc.
+  The ice machine worked well and we were actually able to fill our cooler as we left.  We have stayed at a few places that actually charged for the ice, so this was a perk.  The...We stayed here because it was a quick drive to Universal Studios.  The grounds and parking lot were clean, no litter or debris.  The office was spotless.  There are awards for quality from Super 8 corporate hanging on the wall behind the front desk.  Check in was quick and easy.  The room was on the first floor, so we heard a little noise from upstairs but they were quiet after 10 PM.  The room was quite large (maybe because we were on the corner) and there was plenty of room for suitcases and hanging items.  Large enough for my 10 year old to run in circles and do cartwheels, lol.  The door was secure with a deadbolt as well as a chain lock.  The carpet and bedding looked newer.  The beds were quite comfortable, firm with no sagging, clean and the sheets were fresh.  No signs of bedbugs on the mattresses or the surrounding area.  AC/heater/fan worked well. The refridgerator, microwave and coffee maker (included in the standard room) worked well and were clean.  The towels were soft and smelled fresh.  Tub/shower combo and toilet in bathroom, seperate vanity outside the bathroom.  Hair dryer by vanity.  Adequate shampoo, hand soap, body soap, coffee etc.  The ice machine worked well and we were actually able to fill our cooler as we left.  We have stayed at a few places that actually charged for the ice, so this was a perk.  The breakfast was a plentiful supply of fresh doughnuts and bagels with butter available, juice, coffee etc.   No cream cheese, and no cereal or milk.  But the doughnuts were delicious!  As we were leaving to check out, we were able to look in most of the other rooms on the first floor as they were cleaning them and probably airing them out as it was kind of a cool day.  All of the rooms we saw were just as updated and clean as the one we had been in.  Some of them had a king bed instead of the two queens and there was a garden tub in the room, as opposed to just the tub/shower combo, so that may be something to ask about.   Overall, we enjoyed our stay, we would return if in the area, and I would recommend this location for the price range.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We stayed here because it was a quick drive to Universal Studios.  The grounds and parking lot were clean, no litter or debris.  The office was spotless.  There are awards for quality from Super 8 corporate hanging on the wall behind the front desk.  Check in was quick and easy.  The room was on the first floor, so we heard a little noise from upstairs but they were quiet after 10 PM.  The room was quite large (maybe because we were on the corner) and there was plenty of room for suitcases and hanging items.  Large enough for my 10 year old to run in circles and do cartwheels, lol.  The door was secure with a deadbolt as well as a chain lock.
+  The carpet and bedding looked newer.  The beds were quite comfortable, firm with no sagging, clean and the sheets were fresh.  No signs of bedbugs on the mattresses or the surrounding area.  AC/heater/fan worked well. The refridgerator, microwave and coffee maker (included in the standard room) worked well and were clean.  The towels were soft and smelled fresh.  Tub/shower combo and toilet in bathroom, seperate vanity outside the bathroom.  Hair dryer by vanity.  Adequate shampoo, hand soap, body soap, coffee etc.
+  The ice machine worked well and we were actually able to fill our cooler as we left.  We have stayed at a few places that actually charged for the ice, so this was a perk.  The...We stayed here because it was a quick drive to Universal Studios.  The grounds and parking lot were clean, no litter or debris.  The office was spotless.  There are awards for quality from Super 8 corporate hanging on the wall behind the front desk.  Check in was quick and easy.  The room was on the first floor, so we heard a little noise from upstairs but they were quiet after 10 PM.  The room was quite large (maybe because we were on the corner) and there was plenty of room for suitcases and hanging items.  Large enough for my 10 year old to run in circles and do cartwheels, lol.  The door was secure with a deadbolt as well as a chain lock.  The carpet and bedding looked newer.  The beds were quite comfortable, firm with no sagging, clean and the sheets were fresh.  No signs of bedbugs on the mattresses or the surrounding area.  AC/heater/fan worked well. The refridgerator, microwave and coffee maker (included in the standard room) worked well and were clean.  The towels were soft and smelled fresh.  Tub/shower combo and toilet in bathroom, seperate vanity outside the bathroom.  Hair dryer by vanity.  Adequate shampoo, hand soap, body soap, coffee etc.  The ice machine worked well and we were actually able to fill our cooler as we left.  We have stayed at a few places that actually charged for the ice, so this was a perk.  The breakfast was a plentiful supply of fresh doughnuts and bagels with butter available, juice, coffee etc.   No cream cheese, and no cereal or milk.  But the doughnuts were delicious!  As we were leaving to check out, we were able to look in most of the other rooms on the first floor as they were cleaning them and probably airing them out as it was kind of a cool day.  All of the rooms we saw were just as updated and clean as the one we had been in.  Some of them had a king bed instead of the two queens and there was a garden tub in the room, as opposed to just the tub/shower combo, so that may be something to ask about.   Overall, we enjoyed our stay, we would return if in the area, and I would recommend this location for the price range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r116496957-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>116496957</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>Nice Staff</t>
+  </si>
+  <si>
+    <t>I stayed here at the end of a long dirve from Oregon.  My goal was to arrive in LA and stop for the night.  Having tried another chain Motel, I thought I would give this one a try just for the sake of comparison for future knowledge.  it was very close to where I was going but I was tired. 
+The only room available when I called was a smoking room but I took it.  The person who took my reservation was very friendly and knowledgable.  He also had a nice sense of humor and good manners.  The clerk who greeted me when I arrived wasn't Raj, but he was equally friendly and helpful.  
+I was afraid about the room smell, but was pleasantly surprised that the 'aroma' was very mild and unnoticeable within minutes.  Even when I left the room for a a quick shopping trip, the smell was barely noticable when I returned.  Not bad.
+There was no elevator but the motel is only 2 stories.  For an overnight, not a problem.  Adequate parking available near the room and out of the sun.  No pool.  Adequate ice machines and many near-by places to purchase dinner and/or snacks.  Refrigerator in the room.  Large room.  Large bathroom.  Large dressing room.  Large bed.  Nice sheets.  More than adequate AC.  HBO and the good cable channels.  Continental breakfast included.  
+Close to freeways and many San Fernando Valley attractions.  I liked it.  Very...I stayed here at the end of a long dirve from Oregon.  My goal was to arrive in LA and stop for the night.  Having tried another chain Motel, I thought I would give this one a try just for the sake of comparison for future knowledge.  it was very close to where I was going but I was tired. The only room available when I called was a smoking room but I took it.  The person who took my reservation was very friendly and knowledgable.  He also had a nice sense of humor and good manners.  The clerk who greeted me when I arrived wasn't Raj, but he was equally friendly and helpful.  I was afraid about the room smell, but was pleasantly surprised that the 'aroma' was very mild and unnoticeable within minutes.  Even when I left the room for a a quick shopping trip, the smell was barely noticable when I returned.  Not bad.There was no elevator but the motel is only 2 stories.  For an overnight, not a problem.  Adequate parking available near the room and out of the sun.  No pool.  Adequate ice machines and many near-by places to purchase dinner and/or snacks.  Refrigerator in the room.  Large room.  Large bathroom.  Large dressing room.  Large bed.  Nice sheets.  More than adequate AC.  HBO and the good cable channels.  Continental breakfast included.  Close to freeways and many San Fernando Valley attractions.  I liked it.  Very clean and quiet.  This is only the second time I have stayed at a Motel for the night while driving since I was a kid.  Clean and quiet really mean a lot to me.  I would actually stay here again if necessary and will also give other Super 8 motels a chance if I am too tired to drive on or haven't made reservations elsewhere.  I felt comfortable and secure for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I stayed here at the end of a long dirve from Oregon.  My goal was to arrive in LA and stop for the night.  Having tried another chain Motel, I thought I would give this one a try just for the sake of comparison for future knowledge.  it was very close to where I was going but I was tired. 
+The only room available when I called was a smoking room but I took it.  The person who took my reservation was very friendly and knowledgable.  He also had a nice sense of humor and good manners.  The clerk who greeted me when I arrived wasn't Raj, but he was equally friendly and helpful.  
+I was afraid about the room smell, but was pleasantly surprised that the 'aroma' was very mild and unnoticeable within minutes.  Even when I left the room for a a quick shopping trip, the smell was barely noticable when I returned.  Not bad.
+There was no elevator but the motel is only 2 stories.  For an overnight, not a problem.  Adequate parking available near the room and out of the sun.  No pool.  Adequate ice machines and many near-by places to purchase dinner and/or snacks.  Refrigerator in the room.  Large room.  Large bathroom.  Large dressing room.  Large bed.  Nice sheets.  More than adequate AC.  HBO and the good cable channels.  Continental breakfast included.  
+Close to freeways and many San Fernando Valley attractions.  I liked it.  Very...I stayed here at the end of a long dirve from Oregon.  My goal was to arrive in LA and stop for the night.  Having tried another chain Motel, I thought I would give this one a try just for the sake of comparison for future knowledge.  it was very close to where I was going but I was tired. The only room available when I called was a smoking room but I took it.  The person who took my reservation was very friendly and knowledgable.  He also had a nice sense of humor and good manners.  The clerk who greeted me when I arrived wasn't Raj, but he was equally friendly and helpful.  I was afraid about the room smell, but was pleasantly surprised that the 'aroma' was very mild and unnoticeable within minutes.  Even when I left the room for a a quick shopping trip, the smell was barely noticable when I returned.  Not bad.There was no elevator but the motel is only 2 stories.  For an overnight, not a problem.  Adequate parking available near the room and out of the sun.  No pool.  Adequate ice machines and many near-by places to purchase dinner and/or snacks.  Refrigerator in the room.  Large room.  Large bathroom.  Large dressing room.  Large bed.  Nice sheets.  More than adequate AC.  HBO and the good cable channels.  Continental breakfast included.  Close to freeways and many San Fernando Valley attractions.  I liked it.  Very clean and quiet.  This is only the second time I have stayed at a Motel for the night while driving since I was a kid.  Clean and quiet really mean a lot to me.  I would actually stay here again if necessary and will also give other Super 8 motels a chance if I am too tired to drive on or haven't made reservations elsewhere.  I felt comfortable and secure for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r114595831-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>114595831</t>
+  </si>
+  <si>
+    <t>06/21/2011</t>
+  </si>
+  <si>
+    <t>Very Pleasant</t>
+  </si>
+  <si>
+    <t>My wife and I styaed at this Super 8 on the 31st May for two nights.We found the room very comfortable,I had booked this after changing from staying at Torrance thinking it would be closer to Universal Studios which we wished to visit.Indeed this was the case, and found in the hotel information regarding trips around the area.The manager Mr Patel was kind enough to telephone the bus company to arrange a pick up time for the tour of Universal Studios.The hotel itself was,as I have said very comfortable and the breakfast was more than sufficient with cereal, orange juice ,coffee and all manner of bagels, danish pastries and cakes (fresh this morning from baker) and more than enough to start the day.This is ideal if you do not wish to drive and would like to visit Universal Studios which take my advise and do visit.Just down the road we visited Sizzlers and ate two Rib Eye steaks that just melted in the mouth,salad bar,grilled onions a Heineken and Merlot total bill $55.35 and at todays rate works out at £34.59 what a bargain.All in all a very pleasant location and well worth vsiting this motelMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>My wife and I styaed at this Super 8 on the 31st May for two nights.We found the room very comfortable,I had booked this after changing from staying at Torrance thinking it would be closer to Universal Studios which we wished to visit.Indeed this was the case, and found in the hotel information regarding trips around the area.The manager Mr Patel was kind enough to telephone the bus company to arrange a pick up time for the tour of Universal Studios.The hotel itself was,as I have said very comfortable and the breakfast was more than sufficient with cereal, orange juice ,coffee and all manner of bagels, danish pastries and cakes (fresh this morning from baker) and more than enough to start the day.This is ideal if you do not wish to drive and would like to visit Universal Studios which take my advise and do visit.Just down the road we visited Sizzlers and ate two Rib Eye steaks that just melted in the mouth,salad bar,grilled onions a Heineken and Merlot total bill $55.35 and at todays rate works out at £34.59 what a bargain.All in all a very pleasant location and well worth vsiting this motelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r112741970-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>112741970</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>American Express card really?</t>
+  </si>
+  <si>
+    <t>So please thoroughly make sure you understand what u get into. First off I can't tell you what the room look like because I never check in. My bank card VISA  wasn't a major credit  card so, then the rude clerk want 200 cash deposit from me because my bank card was liability he said. The hotel for those on a budget is not conveniently locate near any public transportation get ready for a cab if u aren't driving. This has been by far the worse experience i every encounter I cancel my trip and caught the next thing smoking out North Hollywood.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r77285238-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>77285238</t>
+  </si>
+  <si>
+    <t>08/28/2010</t>
+  </si>
+  <si>
+    <t>Very Nice, but I can see some of the points others have made...</t>
+  </si>
+  <si>
+    <t>My only real problems with this place were that it's fairly far from most everything else in North Hollywood, and the public transit options are practically nonexistent after midnight. The other one is something a couple others mentioned in their reviews--the strong antiseptic odor in the lobby is pretty strong.Other than that, I had a very good experience. I got the room with the jacuzzi, and it worked very well. The bed was one of the best I've slept on, and the front desk was quite friendly. All in all, I definitely see myself coming back here again. It'll just be with a rental car...</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r68830461-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>68830461</t>
+  </si>
+  <si>
+    <t>06/27/2010</t>
+  </si>
+  <si>
+    <t>Adequate, but I'll spend more for something nicer next time.</t>
+  </si>
+  <si>
+    <t>This hotel is about what you would expect a Super 8 Motel to be: a bed in a room. The rooms looked pretty clean, but one of ours strongly smelled of urine. I asked the manager for another room, and he said they were full. He was very nice about it, but we were stuck with the urine room. The location is a little sketchy, but all the hotel doors face inward. We were a little worried about our cars, so we made sure to get a spot in front of our room. The walls are really thin, and there were some really loud guests next to us, so I didn't sleep well the first night. If you're looking for a cheap room, you'll find it here. Just remember that you're only getting what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>This hotel is about what you would expect a Super 8 Motel to be: a bed in a room. The rooms looked pretty clean, but one of ours strongly smelled of urine. I asked the manager for another room, and he said they were full. He was very nice about it, but we were stuck with the urine room. The location is a little sketchy, but all the hotel doors face inward. We were a little worried about our cars, so we made sure to get a spot in front of our room. The walls are really thin, and there were some really loud guests next to us, so I didn't sleep well the first night. If you're looking for a cheap room, you'll find it here. Just remember that you're only getting what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r54547935-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>54547935</t>
+  </si>
+  <si>
+    <t>01/27/2010</t>
+  </si>
+  <si>
+    <t>Not Good - Save Your Money for Anything Better</t>
+  </si>
+  <si>
+    <t>The first few Super 8s I've stayed in since "stepping up" from Motel 6 have been pleasant experiences.  But as of late, it's been getting worse and worse.  Oh my good Lord.  This latest stint has truly hit rock bottom.  First of all the location is... wow, how should I put it... dangerous, seedy, abhorrent!  The non-smoking room reeked of cigarette.  Odor aside, however, the room amenities weren't bad.  Beds were clean and comfy.  Bathrooms were spacious, but basic.  The problems were with everything else.  The neighbors across the way were anything but neighborly.  Yelling and constant door-slamming made it very difficult to fall asleep.  The next day the outside hallway was littered with cigarette butts.  The guys at the main office swear there is no access code required for the "free wifi", but both of my devices prompt me for the access code.  They never did resolve the problem.  Breakfast was pathetic.  Cold pastries (beware diabetics).  Bagels but no toaster or cream cheese.  That's it.  No cereal, egg, waffle, or fruit.  The worst thing about it... at $75 per night, this hotel cost more than the room I got at the very nice Hard Rock Hotel in Las Vegas!  Shame on you Super 8!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>The first few Super 8s I've stayed in since "stepping up" from Motel 6 have been pleasant experiences.  But as of late, it's been getting worse and worse.  Oh my good Lord.  This latest stint has truly hit rock bottom.  First of all the location is... wow, how should I put it... dangerous, seedy, abhorrent!  The non-smoking room reeked of cigarette.  Odor aside, however, the room amenities weren't bad.  Beds were clean and comfy.  Bathrooms were spacious, but basic.  The problems were with everything else.  The neighbors across the way were anything but neighborly.  Yelling and constant door-slamming made it very difficult to fall asleep.  The next day the outside hallway was littered with cigarette butts.  The guys at the main office swear there is no access code required for the "free wifi", but both of my devices prompt me for the access code.  They never did resolve the problem.  Breakfast was pathetic.  Cold pastries (beware diabetics).  Bagels but no toaster or cream cheese.  That's it.  No cereal, egg, waffle, or fruit.  The worst thing about it... at $75 per night, this hotel cost more than the room I got at the very nice Hard Rock Hotel in Las Vegas!  Shame on you Super 8!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r49136797-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>49136797</t>
+  </si>
+  <si>
+    <t>11/13/2009</t>
+  </si>
+  <si>
+    <t>Stay away from this motel -- I got cheated by them</t>
+  </si>
+  <si>
+    <t>I made a reservation at this motel for a weekend day stay.  However,  I canceled the reservation later on, well before the cancellation deadline.  I was shocked when I looked at my credit card statement and found out that the motel went on to charge my credit card for the one night stay. Needless to say, I called up the motel and complained about it.  They had the nerves to tell me that they charges had gone through and there is nothing they can do for me anymore.  There wasn't any point for me to argue with them anymore and I decided to dispute the credit card charge with my credit card company.I am a leisure traveler and I have stayed anywhere from a motel in Paris, Texas to a Hilton Suites in Paris, France at a rate of 24 lodgings per year.  Usually I never have any problem, but the management's service at this motel is by far the worst I've experienced.Take it from me, AVOID this motel at all cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>I made a reservation at this motel for a weekend day stay.  However,  I canceled the reservation later on, well before the cancellation deadline.  I was shocked when I looked at my credit card statement and found out that the motel went on to charge my credit card for the one night stay. Needless to say, I called up the motel and complained about it.  They had the nerves to tell me that they charges had gone through and there is nothing they can do for me anymore.  There wasn't any point for me to argue with them anymore and I decided to dispute the credit card charge with my credit card company.I am a leisure traveler and I have stayed anywhere from a motel in Paris, Texas to a Hilton Suites in Paris, France at a rate of 24 lodgings per year.  Usually I never have any problem, but the management's service at this motel is by far the worst I've experienced.Take it from me, AVOID this motel at all cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r48061944-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>48061944</t>
+  </si>
+  <si>
+    <t>10/29/2009</t>
+  </si>
+  <si>
+    <t>Great value, don't let the neighborhood scare you</t>
+  </si>
+  <si>
+    <t>If you've read the other reviews on this site you've already been warned about the neighborhood, but don't let that scare you away. I wouldn't call it dangerous and I never felt unsafe staying here, just be cautious if you're planning to walk around at night. But then, this is true of any neighborhood. This one LOOKS worse than it actually is. 
+We booked here for two nights during a trip to SoCal planning to spend time at the beach and check out Griffith Observatory. We booked for value ($70 a night, or so) and sacrificed proximity to the beaches; with traffic it took often an hour and a half to drive to the coast. If you're in SoCal for the beaches, I would recommend booking a hotel closer to the coast and thereby saving yourself some gas money. It was a bit of false economy on our part to skimp on the hotel yet spend all that time commuting to the coast. 
+Nevertheless, the room was very clean. It was spacious (for a budget motel), with a large tv and a hairdryer. The microwave and small fridge came in very handy because on the first night we ventured out for some Thai food and were able to store and reheat our leftovers for the next day's lunch. Our king size bed was very comfortable and everything seemed clean and in working order. The complimentary pastries and coffee in the...If you've read the other reviews on this site you've already been warned about the neighborhood, but don't let that scare you away. I wouldn't call it dangerous and I never felt unsafe staying here, just be cautious if you're planning to walk around at night. But then, this is true of any neighborhood. This one LOOKS worse than it actually is. We booked here for two nights during a trip to SoCal planning to spend time at the beach and check out Griffith Observatory. We booked for value ($70 a night, or so) and sacrificed proximity to the beaches; with traffic it took often an hour and a half to drive to the coast. If you're in SoCal for the beaches, I would recommend booking a hotel closer to the coast and thereby saving yourself some gas money. It was a bit of false economy on our part to skimp on the hotel yet spend all that time commuting to the coast. Nevertheless, the room was very clean. It was spacious (for a budget motel), with a large tv and a hairdryer. The microwave and small fridge came in very handy because on the first night we ventured out for some Thai food and were able to store and reheat our leftovers for the next day's lunch. Our king size bed was very comfortable and everything seemed clean and in working order. The complimentary pastries and coffee in the morning were a nice treat, but make sure to get there early; they go fast! The front desk person never seemed to go out of his way to be particularly friendly, but the check-in/check-out process was always quick and efficient, which was my primary concern. One tip: If I were you I wouldn't park in the rear of the hotel nor get a rear-facing room. The junk yard / truck repair lot back there is rather unsightly and ominous-looking. I didn't experience an incident that made me worry for our safety or the integrity of my vehicle either time I stayed there, but be cautious and alert nonetheless.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>If you've read the other reviews on this site you've already been warned about the neighborhood, but don't let that scare you away. I wouldn't call it dangerous and I never felt unsafe staying here, just be cautious if you're planning to walk around at night. But then, this is true of any neighborhood. This one LOOKS worse than it actually is. 
+We booked here for two nights during a trip to SoCal planning to spend time at the beach and check out Griffith Observatory. We booked for value ($70 a night, or so) and sacrificed proximity to the beaches; with traffic it took often an hour and a half to drive to the coast. If you're in SoCal for the beaches, I would recommend booking a hotel closer to the coast and thereby saving yourself some gas money. It was a bit of false economy on our part to skimp on the hotel yet spend all that time commuting to the coast. 
+Nevertheless, the room was very clean. It was spacious (for a budget motel), with a large tv and a hairdryer. The microwave and small fridge came in very handy because on the first night we ventured out for some Thai food and were able to store and reheat our leftovers for the next day's lunch. Our king size bed was very comfortable and everything seemed clean and in working order. The complimentary pastries and coffee in the...If you've read the other reviews on this site you've already been warned about the neighborhood, but don't let that scare you away. I wouldn't call it dangerous and I never felt unsafe staying here, just be cautious if you're planning to walk around at night. But then, this is true of any neighborhood. This one LOOKS worse than it actually is. We booked here for two nights during a trip to SoCal planning to spend time at the beach and check out Griffith Observatory. We booked for value ($70 a night, or so) and sacrificed proximity to the beaches; with traffic it took often an hour and a half to drive to the coast. If you're in SoCal for the beaches, I would recommend booking a hotel closer to the coast and thereby saving yourself some gas money. It was a bit of false economy on our part to skimp on the hotel yet spend all that time commuting to the coast. Nevertheless, the room was very clean. It was spacious (for a budget motel), with a large tv and a hairdryer. The microwave and small fridge came in very handy because on the first night we ventured out for some Thai food and were able to store and reheat our leftovers for the next day's lunch. Our king size bed was very comfortable and everything seemed clean and in working order. The complimentary pastries and coffee in the morning were a nice treat, but make sure to get there early; they go fast! The front desk person never seemed to go out of his way to be particularly friendly, but the check-in/check-out process was always quick and efficient, which was my primary concern. One tip: If I were you I wouldn't park in the rear of the hotel nor get a rear-facing room. The junk yard / truck repair lot back there is rather unsightly and ominous-looking. I didn't experience an incident that made me worry for our safety or the integrity of my vehicle either time I stayed there, but be cautious and alert nonetheless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r47480035-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>47480035</t>
+  </si>
+  <si>
+    <t>10/22/2009</t>
+  </si>
+  <si>
+    <t>Tuesday is Trash day</t>
+  </si>
+  <si>
+    <t>I arrived Monday noonish decided to get some rest.  I sprung for a jacuzzi suite, the suite had that smell described earlier I opened the window no screen being i was on the ground floor the window didn't stay open long. My view from the one window was a stucco wall.  A hour of so later there was so much noise coming from next to my room.  Room number 113 is next to the rubbish containers a person spent about 2 hours going thru the bags looking for cans banging the lids every now and again for good measure.  Neighborhood is grime.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r29626324-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>29626324</t>
+  </si>
+  <si>
+    <t>05/08/2009</t>
+  </si>
+  <si>
+    <t>serve the purpose</t>
+  </si>
+  <si>
+    <t>i stay thie super 8 in n hollywood for couple of nights,Niace place in a little different neighbourhood,rooms are clean and comfertable, but front desk is little just to the point,mind your own buisness type,</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r26081161-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>26081161</t>
+  </si>
+  <si>
+    <t>03/12/2009</t>
+  </si>
+  <si>
+    <t>Good budget hotel</t>
+  </si>
+  <si>
+    <t>Nice room. Low-rent neighborhood, but I wouldn't call it dangerous. Bed was OK. Microwave oven and mini-fridge in room. Fairly quiet. Free internet terminal in the lobby. Friendly staff.  Would stay again when traveling on a budget in the LA area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r23214232-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>23214232</t>
+  </si>
+  <si>
+    <t>01/02/2009</t>
+  </si>
+  <si>
+    <t>I loved this place for over night stay.</t>
+  </si>
+  <si>
+    <t>If you are looking for just to stay than this is very nice and neat place to stay. It was quite and management was good too. It was very close to hollywood studios, the community was little scary at night. Overall it was gr8 with the price we got it.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r6822573-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>6822573</t>
+  </si>
+  <si>
+    <t>02/20/2007</t>
+  </si>
+  <si>
+    <t>Nice little motel in a convenient location but funky neighborhood</t>
+  </si>
+  <si>
+    <t>This Super 8 Motel property has been recently fixed up and is in nice condition. The prices can't be beat in this area. It's very easy to get to and from and convenient to many valley areas. Just a few blocks from the 170 and 5 freeways. The immediate neighborhood is not very good, however as it's in a mixed light industrial area and not someplace you'd want to stroll around. The managers are a little taciturn but helpful if asked. Internet access is by wire only. No wifi. Park early if you want to be near your room. A larger uncovered lot is in the rear of the property. Be aware that the walls are paper thin and you can be at the mercy of the noise next door. Upstairs is quieter than downstairs. I plan on staying here when in the area on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>This Super 8 Motel property has been recently fixed up and is in nice condition. The prices can't be beat in this area. It's very easy to get to and from and convenient to many valley areas. Just a few blocks from the 170 and 5 freeways. The immediate neighborhood is not very good, however as it's in a mixed light industrial area and not someplace you'd want to stroll around. The managers are a little taciturn but helpful if asked. Internet access is by wire only. No wifi. Park early if you want to be near your room. A larger uncovered lot is in the rear of the property. Be aware that the walls are paper thin and you can be at the mercy of the noise next door. Upstairs is quieter than downstairs. I plan on staying here when in the area on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r4896213-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4896213</t>
+  </si>
+  <si>
+    <t>04/03/2006</t>
+  </si>
+  <si>
+    <t>Lovely hotel I would stay here again</t>
+  </si>
+  <si>
+    <t>Love is great, clean, the staff is very helpfull and friendly. its great value for the money that you paid. I stay 4 nights and all was confortable.have fridge and microwave  and also they have rooms with jacuzzi, the next time i going to hollywood or surrender areas I will go back to this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r3713167-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>3713167</t>
+  </si>
+  <si>
+    <t>07/27/2005</t>
+  </si>
+  <si>
+    <t>Questionable area but all around awesome hotel!</t>
+  </si>
+  <si>
+    <t>Having read the other reviews of this hotel before we left I was afraid of what we might be getting ourselves into.  The area is shady.  We tried to hurry in the parking lot.  It is very well lit, but three women shouldn't be out in the wee hours anywhere really.  The parking lot curves around the building, if we had had to park back there I would have been worried.  However, for all three nights we parked right in front, there is plenty of room.  The service here was just great, we spoke to two different receptionists and both were very helpful.  The room was very big, the ceilings were high, the vanity was outside the big bathroom and there was a separate open closet area.  The room and bathroom were extremely clean and we are picky travelers.  The water pressure left a little to be desired, but it was fine.  They serve Winchell's donuts in the morning which happened to hit the spot for the three of us tired of hitting fast food for three weeks.  If you do reserve a room here, try to get one on the second floor, there is a locked stairwell that leads to the second floor.  However, there is no elevator so you'll have to lug everything up. If you're on the ground floor, no worries either.  Don't be scared of this hotel, it's a great value.  We had a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>Having read the other reviews of this hotel before we left I was afraid of what we might be getting ourselves into.  The area is shady.  We tried to hurry in the parking lot.  It is very well lit, but three women shouldn't be out in the wee hours anywhere really.  The parking lot curves around the building, if we had had to park back there I would have been worried.  However, for all three nights we parked right in front, there is plenty of room.  The service here was just great, we spoke to two different receptionists and both were very helpful.  The room was very big, the ceilings were high, the vanity was outside the big bathroom and there was a separate open closet area.  The room and bathroom were extremely clean and we are picky travelers.  The water pressure left a little to be desired, but it was fine.  They serve Winchell's donuts in the morning which happened to hit the spot for the three of us tired of hitting fast food for three weeks.  If you do reserve a room here, try to get one on the second floor, there is a locked stairwell that leads to the second floor.  However, there is no elevator so you'll have to lug everything up. If you're on the ground floor, no worries either.  Don't be scared of this hotel, it's a great value.  We had a great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r2517639-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>2517639</t>
+  </si>
+  <si>
+    <t>09/06/2004</t>
+  </si>
+  <si>
+    <t>Great motel. Bad location.</t>
+  </si>
+  <si>
+    <t>This motel has a lot of good things going for it. It's a clean property with clean rooms and a friendly and helpful staff. The free broadband internet service was drop dead easy to use. The shower head delivered wonderful water volume unlike those miserable water saver types at some places, AND it was installed high enough on the wall that tall people like myself don't have to hunch down to get under it - much appreciated.
+On the down side, the bed sheets were almost like plastic. I've never felt linens like that before. I suspect they were selected for their durability. The bathroom is roomy - large enough for wheelchair access. Oddly, the commode was positioned in this large bathroom so that only adults with long arms can reach the bathroom tissue on the opposite wall without getting up.
+Pastries were available in the office in the morning, but they obviously get them from one of the many local Mexican businesses because although they were attractive looking, they had a taste that only someone raised south of the border would appreciate. The worst thing though was the poor neighborhood. It's an area in decline - run down and seedy looking (which may explain the multitude of not so hidden security cameras). It made us feel uncomfortable.
+The Super 8, North Hollywood is a super value. Clean rooms at bargain prices. It's a shame really, because if it weren't...This motel has a lot of good things going for it. It's a clean property with clean rooms and a friendly and helpful staff. The free broadband internet service was drop dead easy to use. The shower head delivered wonderful water volume unlike those miserable water saver types at some places, AND it was installed high enough on the wall that tall people like myself don't have to hunch down to get under it - much appreciated.On the down side, the bed sheets were almost like plastic. I've never felt linens like that before. I suspect they were selected for their durability. The bathroom is roomy - large enough for wheelchair access. Oddly, the commode was positioned in this large bathroom so that only adults with long arms can reach the bathroom tissue on the opposite wall without getting up.Pastries were available in the office in the morning, but they obviously get them from one of the many local Mexican businesses because although they were attractive looking, they had a taste that only someone raised south of the border would appreciate. The worst thing though was the poor neighborhood. It's an area in decline - run down and seedy looking (which may explain the multitude of not so hidden security cameras). It made us feel uncomfortable.The Super 8, North Hollywood is a super value. Clean rooms at bargain prices. It's a shame really, because if it weren't for the location, we would give this motel high marks.Bottom LineWould we stay there again? No.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel has a lot of good things going for it. It's a clean property with clean rooms and a friendly and helpful staff. The free broadband internet service was drop dead easy to use. The shower head delivered wonderful water volume unlike those miserable water saver types at some places, AND it was installed high enough on the wall that tall people like myself don't have to hunch down to get under it - much appreciated.
+On the down side, the bed sheets were almost like plastic. I've never felt linens like that before. I suspect they were selected for their durability. The bathroom is roomy - large enough for wheelchair access. Oddly, the commode was positioned in this large bathroom so that only adults with long arms can reach the bathroom tissue on the opposite wall without getting up.
+Pastries were available in the office in the morning, but they obviously get them from one of the many local Mexican businesses because although they were attractive looking, they had a taste that only someone raised south of the border would appreciate. The worst thing though was the poor neighborhood. It's an area in decline - run down and seedy looking (which may explain the multitude of not so hidden security cameras). It made us feel uncomfortable.
+The Super 8, North Hollywood is a super value. Clean rooms at bargain prices. It's a shame really, because if it weren't...This motel has a lot of good things going for it. It's a clean property with clean rooms and a friendly and helpful staff. The free broadband internet service was drop dead easy to use. The shower head delivered wonderful water volume unlike those miserable water saver types at some places, AND it was installed high enough on the wall that tall people like myself don't have to hunch down to get under it - much appreciated.On the down side, the bed sheets were almost like plastic. I've never felt linens like that before. I suspect they were selected for their durability. The bathroom is roomy - large enough for wheelchair access. Oddly, the commode was positioned in this large bathroom so that only adults with long arms can reach the bathroom tissue on the opposite wall without getting up.Pastries were available in the office in the morning, but they obviously get them from one of the many local Mexican businesses because although they were attractive looking, they had a taste that only someone raised south of the border would appreciate. The worst thing though was the poor neighborhood. It's an area in decline - run down and seedy looking (which may explain the multitude of not so hidden security cameras). It made us feel uncomfortable.The Super 8, North Hollywood is a super value. Clean rooms at bargain prices. It's a shame really, because if it weren't for the location, we would give this motel high marks.Bottom LineWould we stay there again? No.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r2308123-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>2308123</t>
+  </si>
+  <si>
+    <t>07/18/2004</t>
+  </si>
+  <si>
+    <t>Quite pleased and surprised</t>
+  </si>
+  <si>
+    <t>I was pleased and surprised at this hotel.  You would need a car, but it's only a short drive to downtown Hollywood.  The place is sparkling clean and the rooms like brand new.  Not the best neighborhood, but nothing dangerous.  The staff was friendly, and the rates were excellent.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2522,6914 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s">
+        <v>175</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>165</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>198</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s">
+        <v>210</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>211</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" t="s">
+        <v>216</v>
+      </c>
+      <c r="L32" t="s">
+        <v>217</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" t="s">
+        <v>223</v>
+      </c>
+      <c r="L33" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>230</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>233</v>
+      </c>
+      <c r="J35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" t="s">
+        <v>236</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>230</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>211</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" t="s">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s">
+        <v>249</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>244</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J39" t="s">
+        <v>252</v>
+      </c>
+      <c r="K39" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>255</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" t="s">
+        <v>259</v>
+      </c>
+      <c r="L40" t="s">
+        <v>260</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>255</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>198</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>269</v>
+      </c>
+      <c r="J43" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>272</v>
+      </c>
+      <c r="J44" t="s">
+        <v>273</v>
+      </c>
+      <c r="K44" t="s">
+        <v>274</v>
+      </c>
+      <c r="L44" t="s">
+        <v>275</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>276</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>278</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>279</v>
+      </c>
+      <c r="J45" t="s">
+        <v>280</v>
+      </c>
+      <c r="K45" t="s">
+        <v>281</v>
+      </c>
+      <c r="L45" t="s">
+        <v>282</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>283</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>284</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46" t="s">
+        <v>286</v>
+      </c>
+      <c r="K46" t="s">
+        <v>287</v>
+      </c>
+      <c r="L46" t="s">
+        <v>288</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>283</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>290</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>291</v>
+      </c>
+      <c r="J47" t="s">
+        <v>292</v>
+      </c>
+      <c r="K47" t="s">
+        <v>293</v>
+      </c>
+      <c r="L47" t="s">
+        <v>294</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>295</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>297</v>
+      </c>
+      <c r="J48" t="s">
+        <v>298</v>
+      </c>
+      <c r="K48" t="s">
+        <v>299</v>
+      </c>
+      <c r="L48" t="s">
+        <v>300</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>295</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>302</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>303</v>
+      </c>
+      <c r="J49" t="s">
+        <v>304</v>
+      </c>
+      <c r="K49" t="s">
+        <v>305</v>
+      </c>
+      <c r="L49" t="s">
+        <v>306</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>295</v>
+      </c>
+      <c r="O49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>307</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>308</v>
+      </c>
+      <c r="J50" t="s">
+        <v>309</v>
+      </c>
+      <c r="K50" t="s">
+        <v>310</v>
+      </c>
+      <c r="L50" t="s">
+        <v>311</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>312</v>
+      </c>
+      <c r="O50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>315</v>
+      </c>
+      <c r="J51" t="s">
+        <v>316</v>
+      </c>
+      <c r="K51" t="s">
+        <v>317</v>
+      </c>
+      <c r="L51" t="s">
+        <v>318</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>319</v>
+      </c>
+      <c r="O51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>321</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>322</v>
+      </c>
+      <c r="J52" t="s">
+        <v>323</v>
+      </c>
+      <c r="K52" t="s">
+        <v>324</v>
+      </c>
+      <c r="L52" t="s">
+        <v>325</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>326</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>329</v>
+      </c>
+      <c r="J53" t="s">
+        <v>330</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>326</v>
+      </c>
+      <c r="O53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>331</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>332</v>
+      </c>
+      <c r="J54" t="s">
+        <v>333</v>
+      </c>
+      <c r="K54" t="s">
+        <v>334</v>
+      </c>
+      <c r="L54" t="s">
+        <v>335</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>338</v>
+      </c>
+      <c r="J55" t="s">
+        <v>339</v>
+      </c>
+      <c r="K55" t="s">
+        <v>340</v>
+      </c>
+      <c r="L55" t="s">
+        <v>341</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>326</v>
+      </c>
+      <c r="O55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>342</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>343</v>
+      </c>
+      <c r="J56" t="s">
+        <v>344</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>345</v>
+      </c>
+      <c r="O56" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>347</v>
+      </c>
+      <c r="J57" t="s">
+        <v>348</v>
+      </c>
+      <c r="K57" t="s">
+        <v>349</v>
+      </c>
+      <c r="L57" t="s">
+        <v>350</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>345</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>352</v>
+      </c>
+      <c r="J58" t="s">
+        <v>353</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>354</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>355</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>356</v>
+      </c>
+      <c r="J59" t="s">
+        <v>357</v>
+      </c>
+      <c r="K59" t="s">
+        <v>358</v>
+      </c>
+      <c r="L59" t="s">
+        <v>359</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>360</v>
+      </c>
+      <c r="O59" t="s">
+        <v>68</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>361</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>362</v>
+      </c>
+      <c r="J60" t="s">
+        <v>363</v>
+      </c>
+      <c r="K60" t="s">
+        <v>364</v>
+      </c>
+      <c r="L60" t="s">
+        <v>365</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>360</v>
+      </c>
+      <c r="O60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>366</v>
+      </c>
+      <c r="X60" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>369</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>370</v>
+      </c>
+      <c r="J61" t="s">
+        <v>371</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s">
+        <v>98</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>360</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>366</v>
+      </c>
+      <c r="X61" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>372</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>373</v>
+      </c>
+      <c r="J62" t="s">
+        <v>374</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>375</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>377</v>
+      </c>
+      <c r="J63" t="s">
+        <v>378</v>
+      </c>
+      <c r="K63" t="s">
+        <v>379</v>
+      </c>
+      <c r="L63" t="s">
+        <v>380</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>375</v>
+      </c>
+      <c r="O63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>382</v>
+      </c>
+      <c r="J64" t="s">
+        <v>383</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>375</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>384</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>385</v>
+      </c>
+      <c r="J65" t="s">
+        <v>386</v>
+      </c>
+      <c r="K65" t="s">
+        <v>387</v>
+      </c>
+      <c r="L65" t="s">
+        <v>388</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>389</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>390</v>
+      </c>
+      <c r="X65" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>393</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>394</v>
+      </c>
+      <c r="J66" t="s">
+        <v>395</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>98</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>389</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>390</v>
+      </c>
+      <c r="X66" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>396</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>397</v>
+      </c>
+      <c r="J67" t="s">
+        <v>398</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>98</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>399</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>390</v>
+      </c>
+      <c r="X67" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>400</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>401</v>
+      </c>
+      <c r="J68" t="s">
+        <v>402</v>
+      </c>
+      <c r="K68" t="s">
+        <v>403</v>
+      </c>
+      <c r="L68" t="s">
+        <v>404</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>405</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>406</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>407</v>
+      </c>
+      <c r="J69" t="s">
+        <v>408</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>409</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>410</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>411</v>
+      </c>
+      <c r="J70" t="s">
+        <v>412</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>413</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>414</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>415</v>
+      </c>
+      <c r="J71" t="s">
+        <v>416</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>413</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>417</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>418</v>
+      </c>
+      <c r="J72" t="s">
+        <v>419</v>
+      </c>
+      <c r="K72" t="s">
+        <v>420</v>
+      </c>
+      <c r="L72" t="s">
+        <v>421</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>413</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>422</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>423</v>
+      </c>
+      <c r="J73" t="s">
+        <v>424</v>
+      </c>
+      <c r="K73" t="s">
+        <v>425</v>
+      </c>
+      <c r="L73" t="s">
+        <v>426</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>427</v>
+      </c>
+      <c r="O73" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>428</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>429</v>
+      </c>
+      <c r="J74" t="s">
+        <v>430</v>
+      </c>
+      <c r="K74" t="s">
+        <v>431</v>
+      </c>
+      <c r="L74" t="s">
+        <v>432</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>433</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>434</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>435</v>
+      </c>
+      <c r="J75" t="s">
+        <v>436</v>
+      </c>
+      <c r="K75" t="s">
+        <v>437</v>
+      </c>
+      <c r="L75" t="s">
+        <v>438</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>440</v>
+      </c>
+      <c r="J76" t="s">
+        <v>441</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>442</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>443</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>444</v>
+      </c>
+      <c r="J77" t="s">
+        <v>445</v>
+      </c>
+      <c r="K77" t="s">
+        <v>446</v>
+      </c>
+      <c r="L77" t="s">
+        <v>447</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>448</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>449</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>450</v>
+      </c>
+      <c r="J78" t="s">
+        <v>451</v>
+      </c>
+      <c r="K78" t="s">
+        <v>452</v>
+      </c>
+      <c r="L78" t="s">
+        <v>453</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>455</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>456</v>
+      </c>
+      <c r="J79" t="s">
+        <v>457</v>
+      </c>
+      <c r="K79" t="s">
+        <v>458</v>
+      </c>
+      <c r="L79" t="s">
+        <v>459</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>460</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>461</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>462</v>
+      </c>
+      <c r="J80" t="s">
+        <v>463</v>
+      </c>
+      <c r="K80" t="s">
+        <v>464</v>
+      </c>
+      <c r="L80" t="s">
+        <v>465</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>466</v>
+      </c>
+      <c r="O80" t="s">
+        <v>100</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>467</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>468</v>
+      </c>
+      <c r="J81" t="s">
+        <v>469</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>470</v>
+      </c>
+      <c r="O81" t="s">
+        <v>100</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>471</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>472</v>
+      </c>
+      <c r="J82" t="s">
+        <v>473</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>474</v>
+      </c>
+      <c r="O82" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>475</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>476</v>
+      </c>
+      <c r="J83" t="s">
+        <v>477</v>
+      </c>
+      <c r="K83" t="s">
+        <v>478</v>
+      </c>
+      <c r="L83" t="s">
+        <v>479</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>480</v>
+      </c>
+      <c r="O83" t="s">
+        <v>61</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>481</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>482</v>
+      </c>
+      <c r="J84" t="s">
+        <v>483</v>
+      </c>
+      <c r="K84" t="s">
+        <v>484</v>
+      </c>
+      <c r="L84" t="s">
+        <v>485</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>486</v>
+      </c>
+      <c r="O84" t="s">
+        <v>68</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>488</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>489</v>
+      </c>
+      <c r="J85" t="s">
+        <v>490</v>
+      </c>
+      <c r="K85" t="s">
+        <v>491</v>
+      </c>
+      <c r="L85" t="s">
+        <v>492</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>493</v>
+      </c>
+      <c r="O85" t="s">
+        <v>68</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>494</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>495</v>
+      </c>
+      <c r="J86" t="s">
+        <v>496</v>
+      </c>
+      <c r="K86" t="s">
+        <v>497</v>
+      </c>
+      <c r="L86" t="s">
+        <v>498</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>480</v>
+      </c>
+      <c r="O86" t="s">
+        <v>100</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>499</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>500</v>
+      </c>
+      <c r="J87" t="s">
+        <v>496</v>
+      </c>
+      <c r="K87" t="s">
+        <v>501</v>
+      </c>
+      <c r="L87" t="s">
+        <v>502</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>480</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>504</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>505</v>
+      </c>
+      <c r="J88" t="s">
+        <v>506</v>
+      </c>
+      <c r="K88" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" t="s">
+        <v>507</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>480</v>
+      </c>
+      <c r="O88" t="s">
+        <v>100</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>508</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>509</v>
+      </c>
+      <c r="J89" t="s">
+        <v>510</v>
+      </c>
+      <c r="K89" t="s">
+        <v>511</v>
+      </c>
+      <c r="L89" t="s">
+        <v>512</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>513</v>
+      </c>
+      <c r="O89" t="s">
+        <v>76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>514</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>515</v>
+      </c>
+      <c r="J90" t="s">
+        <v>510</v>
+      </c>
+      <c r="K90" t="s">
+        <v>516</v>
+      </c>
+      <c r="L90" t="s">
+        <v>517</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>513</v>
+      </c>
+      <c r="O90" t="s">
+        <v>68</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>519</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>520</v>
+      </c>
+      <c r="J91" t="s">
+        <v>521</v>
+      </c>
+      <c r="K91" t="s">
+        <v>522</v>
+      </c>
+      <c r="L91" t="s">
+        <v>523</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>524</v>
+      </c>
+      <c r="O91" t="s">
+        <v>68</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>525</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>526</v>
+      </c>
+      <c r="J92" t="s">
+        <v>527</v>
+      </c>
+      <c r="K92" t="s">
+        <v>528</v>
+      </c>
+      <c r="L92" t="s">
+        <v>529</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>530</v>
+      </c>
+      <c r="O92" t="s">
+        <v>68</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>532</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>533</v>
+      </c>
+      <c r="J93" t="s">
+        <v>534</v>
+      </c>
+      <c r="K93" t="s">
+        <v>535</v>
+      </c>
+      <c r="L93" t="s">
+        <v>536</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>530</v>
+      </c>
+      <c r="O93" t="s">
+        <v>68</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>537</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>538</v>
+      </c>
+      <c r="J94" t="s">
+        <v>539</v>
+      </c>
+      <c r="K94" t="s">
+        <v>540</v>
+      </c>
+      <c r="L94" t="s">
+        <v>541</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>542</v>
+      </c>
+      <c r="O94" t="s">
+        <v>68</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>544</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>545</v>
+      </c>
+      <c r="J95" t="s">
+        <v>546</v>
+      </c>
+      <c r="K95" t="s">
+        <v>547</v>
+      </c>
+      <c r="L95" t="s">
+        <v>548</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>549</v>
+      </c>
+      <c r="O95" t="s">
+        <v>61</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>551</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>552</v>
+      </c>
+      <c r="J96" t="s">
+        <v>553</v>
+      </c>
+      <c r="K96" t="s">
+        <v>554</v>
+      </c>
+      <c r="L96" t="s">
+        <v>555</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>556</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>558</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>559</v>
+      </c>
+      <c r="J97" t="s">
+        <v>560</v>
+      </c>
+      <c r="K97" t="s">
+        <v>561</v>
+      </c>
+      <c r="L97" t="s">
+        <v>562</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>563</v>
+      </c>
+      <c r="O97" t="s">
+        <v>100</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>564</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>565</v>
+      </c>
+      <c r="J98" t="s">
+        <v>566</v>
+      </c>
+      <c r="K98" t="s">
+        <v>567</v>
+      </c>
+      <c r="L98" t="s">
+        <v>568</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>569</v>
+      </c>
+      <c r="O98" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>570</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>571</v>
+      </c>
+      <c r="J99" t="s">
+        <v>572</v>
+      </c>
+      <c r="K99" t="s">
+        <v>573</v>
+      </c>
+      <c r="L99" t="s">
+        <v>574</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>575</v>
+      </c>
+      <c r="O99" t="s">
+        <v>68</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>577</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>578</v>
+      </c>
+      <c r="J100" t="s">
+        <v>579</v>
+      </c>
+      <c r="K100" t="s">
+        <v>580</v>
+      </c>
+      <c r="L100" t="s">
+        <v>581</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>582</v>
+      </c>
+      <c r="O100" t="s">
+        <v>68</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>584</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>585</v>
+      </c>
+      <c r="J101" t="s">
+        <v>586</v>
+      </c>
+      <c r="K101" t="s">
+        <v>587</v>
+      </c>
+      <c r="L101" t="s">
+        <v>588</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>589</v>
+      </c>
+      <c r="O101" t="s">
+        <v>61</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>591</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>592</v>
+      </c>
+      <c r="J102" t="s">
+        <v>593</v>
+      </c>
+      <c r="K102" t="s">
+        <v>594</v>
+      </c>
+      <c r="L102" t="s">
+        <v>595</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>596</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>598</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>599</v>
+      </c>
+      <c r="J103" t="s">
+        <v>600</v>
+      </c>
+      <c r="K103" t="s">
+        <v>601</v>
+      </c>
+      <c r="L103" t="s">
+        <v>602</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>603</v>
+      </c>
+      <c r="O103" t="s">
+        <v>76</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>604</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>605</v>
+      </c>
+      <c r="J104" t="s">
+        <v>606</v>
+      </c>
+      <c r="K104" t="s">
+        <v>607</v>
+      </c>
+      <c r="L104" t="s">
+        <v>608</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>609</v>
+      </c>
+      <c r="O104" t="s">
+        <v>76</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>610</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>611</v>
+      </c>
+      <c r="J105" t="s">
+        <v>612</v>
+      </c>
+      <c r="K105" t="s">
+        <v>613</v>
+      </c>
+      <c r="L105" t="s">
+        <v>614</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>615</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>616</v>
+      </c>
+      <c r="J106" t="s">
+        <v>617</v>
+      </c>
+      <c r="K106" t="s">
+        <v>618</v>
+      </c>
+      <c r="L106" t="s">
+        <v>619</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>620</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>621</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>622</v>
+      </c>
+      <c r="J107" t="s">
+        <v>623</v>
+      </c>
+      <c r="K107" t="s">
+        <v>624</v>
+      </c>
+      <c r="L107" t="s">
+        <v>625</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>626</v>
+      </c>
+      <c r="O107" t="s">
+        <v>76</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>628</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>629</v>
+      </c>
+      <c r="J108" t="s">
+        <v>630</v>
+      </c>
+      <c r="K108" t="s">
+        <v>631</v>
+      </c>
+      <c r="L108" t="s">
+        <v>632</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>633</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>634</v>
+      </c>
+      <c r="J109" t="s">
+        <v>635</v>
+      </c>
+      <c r="K109" t="s">
+        <v>636</v>
+      </c>
+      <c r="L109" t="s">
+        <v>637</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>639</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>640</v>
+      </c>
+      <c r="J110" t="s">
+        <v>641</v>
+      </c>
+      <c r="K110" t="s">
+        <v>642</v>
+      </c>
+      <c r="L110" t="s">
+        <v>643</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>50866</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>645</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>646</v>
+      </c>
+      <c r="J111" t="s">
+        <v>647</v>
+      </c>
+      <c r="K111" t="s">
+        <v>648</v>
+      </c>
+      <c r="L111" t="s">
+        <v>649</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_742.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_742.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="758">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jenn P</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>We were flying out of Burbank airport early in the morning and needed an affordable option nearby.  Picked this place because of the pricing and "decent" reviews.  While I think everyone needs to do what works for them, I would never recommend this place to anyone.  We felt very unsafe in this neighborhood and EVERYTHING was so loud.  While it was NYE, I really couldn't tell if the neighborhood sounds were fireworks, gunshots, or both.  Added to that, the facility itself was very loud - could hear every movement of every guest.  It sounded like someone was grinding on something in the middle of the night, could hear footsteps, snoring, talking, etc.  It was awful and I would never, ever stay here again, despite the fact that the night manager was very nice and helpful.  And, finding Uber rides in this area can also be a challenge.  So, do yourself a favor and pay more for a nicer place that will also give you some peace of mind.  Book elsewhere!More</t>
   </si>
   <si>
+    <t>Kathi V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r539975844-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Mark-in-Rio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r534183708-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>The place looks decent from the outside but don't be fooled!  THE BAD:  The room was FILTHY!  Stayed in room 111.  Old and stained carpet.  Walls were dirty, scuffed, and need painting.  The furniture is old and worn out.  We couldn't get the drawers open very easily.  The bed spreads are old and stained.  The tile grout was nasty.  The sink stopper was broken.  The floors haven't been cleaned in who knows how long.  The edges of the carpet haven't been vacuumed in who knows how long.  Continental breakfast consisted of Frosted Flakes, Raisin Bran, Toast, Apples, Yogurt.  Coffee was horrible.  If you get to this place late, good luck finding a parking spot.  Which is surprising considering the place is a dump.  Must be the $125/night rate for Hollywood area.THE GOOD:  The night clerk was nice.  The room had nice plantation shutters.Overall:  This place is a dump.More</t>
   </si>
   <si>
+    <t>E R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r524989887-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Kyleandrene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r521233653-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t xml:space="preserve">My son and i stayed overnight on August 32 when it was 115 degrees that day. The AC worked well although it was not turned on upon arrival and the bathroom was hot. The beds were comfortable, the area quiet, and the breakfast satisfactory. I would stay there again. </t>
   </si>
   <si>
+    <t>kenneth19642017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r512434747-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>08/13/2017</t>
   </si>
   <si>
+    <t>kimberlyc487</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r492048281-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -283,6 +304,9 @@
   </si>
   <si>
     <t>June 2017</t>
+  </si>
+  <si>
+    <t>TRTW</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r489944659-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -312,6 +336,9 @@
 The place came with a continental breakfast. I was not happy with it actually. Yes, they do have continental breakfast, but the cereal was stale, they ran out of hard boiled eggs, the yogurt was frozen, and...I chose Super 8 North Hollywood because of its location, price, and prior experience from another Super 8 location. I was arriving at midnight and would leave early at 9 a.m. So, it was not mandatory that I find the hotel that fits perfectly.Check in was a bit worrysome. As I arrived there was no one at the front desk. I kept knocking but no one was there. I did hear the radio out back and finally the clerk did see me. He was nice and the check in was smooth. I did get the room I asked for on the second floor. I noticed that the hotel was also for smoking, which was a turn off for me. Upon entering the room I noticed that it needed updating. I felt like it was stuck in the 1970's/80's. I have not seen furniture like that since I was 10! They did have wifi but the connection was terribly slow. TV was small. I did see a couple of stains but at least it was not on the bed. Although, I did not look under the sheets. I was tired and all I wanted to do was to sleep after a long drive.The place came with a continental breakfast. I was not happy with it actually. Yes, they do have continental breakfast, but the cereal was stale, they ran out of hard boiled eggs, the yogurt was frozen, and the only bread there was two slices of dry white bread. I'm not sure if there was a crowd that came in before me to eat but there was nothing there. It was 8:00 a.m. Disappointed, I went back to the room and ate the frozen yogurt and the chips I brought for breakfast. I couldn't wait to check out.Thank goodness it was a QUICK STAY! I did like that there was parking available, and also the fact it's near the freeway access. What I did not like was that the neighborhood is a bit questionable. My advice to the management staff is to update the rooms and also kick it up a notch on the continental breakfast. Well, I do like the customer service. The reception desk was friendly.More</t>
   </si>
   <si>
+    <t>R4195XCsusanb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r489875154-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>890stacys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r477303983-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t xml:space="preserve">Not as close to Universal Studios as I thought. It is only 5.6 miles but the traffic both ways was very slow. The area is not a tourist area. The hotel is clean and well maintained. The breakfast was barely able to be considered breakfast. They were not very helpful. If you need anything, towels, irons or anything, they will not bring it to you. When I went to get an iron the one they gave me was held together with scotch tape. This was one my wife was upset at me for booking, and she doesn't complain. </t>
   </si>
   <si>
+    <t>Larry F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r466643583-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -366,6 +399,9 @@
     <t>When we arrived they did not have a 1st floor room as requested.  Since we cannot do stairs the desk clerk tried very hard and found us a room which actually was a smoking room.  We stayed three days and expected our reservation to be honored as ordered several weeks in advance.The neighborhood is questionable to say the least.  The motel looks just like the photo but the surroundings are unsavory.Breakfast was acceptable but not up to other Super 8 Motels we have stayed at in recent years.  Understandable since the property is foreign owned.  Way too many motels are being run by people who have no experience in American hospitality.More</t>
   </si>
   <si>
+    <t>SWBlanchard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r466337824-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,6 +417,9 @@
     <t xml:space="preserve">This place defiantly not like the pictures.  It was convenient. Neighbors stayed up most of the night and neighboring businesses were loud. I will probably pick a different one next time.  They did have complimentary breakfast but not much to write home about.  </t>
   </si>
   <si>
+    <t>Zoey D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r437931275-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>M7173KJmichaelh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r437498502-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -414,6 +456,9 @@
     <t>The hotel needs to be refurbished with new items and painting. the furnishing are very dingy and warn.  It is clean but does not feel that way because the rooms are not fresh in physical items, furniture, carpet and painting.  You should at least hire a repair person to constantly touch up the wear.  I have stayed many times in the Howard Johnson's Hotel at Receda, CA. (down the road)  During the week I not only see maids but a repair man always touching up the rooms - It is much sharper than Super 8</t>
   </si>
   <si>
+    <t>minavvv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r434183316-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -432,6 +477,9 @@
     <t>Despite the creepy, flickering bathroom light in our room (203) and the occasional loud, mystery mechanical buzz, our stay was rather enjoyable. We didn't have enough towels our first night for the two of us but that really didnt bother me much. Our room came with a microwave and mini-fridge which came in handy for our left overs and the flat screen TV was awesome! A ton of channels to watch. The maids were also super nice and laid out our blanket we brought on the bed instead of the one that came with the room. The bed was also really big. More than enough room for the two of us. On our last day, we slept in and they let us stay past check out time (11:00) for 30 minutes which was super great. The neighborhood was alright. Not somewhere I would walk around. Parking is limited so if you don't plan on finding street parking then I suggest you come back a little early!All in all, I would stay here again. Thanks for the awesome customer service!More</t>
   </si>
   <si>
+    <t>BRYAN T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r414619255-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -450,6 +498,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Andy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r413933672-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -463,6 +514,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cozy hotel. Recently updated. Value priced and friendly. Quick check in. Could benefit from a service elevator so guests are disturbed by rollaway beds being drug down the stairs. Close location to the 5 freeway. </t>
+  </si>
+  <si>
+    <t>broncos2015champs</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r406537940-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -491,6 +545,9 @@
 I appreciate the parking lot is very well lit with LED floodlights, but the wooden slat shutters in the room fall short of filtering out...I visit Burbank a couple times each year and typically stay at this hotel - not anymore after my most recent stay. I understand this hotel is in California and close to Hollywood, but they aren't investing their $150 per night fee back into their rooms.The pillows provided on the bed are so thin you can achieve more thickness by rolling up a towel from the bathroom. The three pillows that were in my room had the hair from the previous guests on them - gross. It at least have me a chance to brush up on my CSI skills - the previous guests had brown and grey hair.The thermostat in the room has two settings: hot and muggy or freezing cold. Whichever setting you choose, you will be treated to an evening of listening to the equivalent of a rickety compressor from a 1970s pop machine struggling to operate during the night.The alarm clock does not completely shut off. In spite of your efforts, you will always be able to faintly hear the radio all the time. Be sure not to place your phone or anything electronic by the alarm clock, otherwise the radio sound will be replaced with static feedback. It is best just to unplug the alarm clock altogether.I appreciate the parking lot is very well lit with LED floodlights, but the wooden slat shutters in the room fall short of filtering out the light regardless of which direction you adjust them. If you prefer your room to resemble any shade of darkness to get a good night sleep, you will struggle doing so at this hotel. Bring some clothes pins to hang some towels in front of the shutters to filter out the light.When you can't sleep, and need a break from reading, you might as well see what's on TV. The room comes with an alluring guide that teases you with 150 channels. The thing is, this particular hotel only gets a quarter of them.I used to enjoy staying at this hotel for their close proximity to the television studios. They took several steps backwards in my eye during this stay. Either that, or Room 208 is the only disaster out of the whole lot.More</t>
   </si>
   <si>
+    <t>241trace746</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r403007466-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -506,6 +563,9 @@
     <t xml:space="preserve">What they offered as a continental breakfast was bread, yogurt, pre packed cinnamon roll and cereal, everyday. Machine orange juice and coffee. That was very poor. </t>
   </si>
   <si>
+    <t>U219DUritac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r394402591-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -518,6 +578,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>cesaro549</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r393237375-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -530,6 +593,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Edinson O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r375192021-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -545,6 +611,9 @@
     <t>Nice Motel in Los Angeles North close to Universal and Burbank. Regular service and the area, but you get a reasonable price, and good bed. The parking lot is at front of your room. You will receive a very basic continental breakfast and coffee included in the rate</t>
   </si>
   <si>
+    <t>sam4298</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r373848499-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -560,6 +629,9 @@
     <t>This hotel is 15 minutes from Universal, and close to the Burbank Airport.  We arrived around 9:00pm and left around 10:00am.  The room was very nice looking, comfortable, and clean.  The price was very reasonable, and they gave a AARP discount.  The free breakfast was very adequate with toast, instant oatmeal, cereal and milk, coffee and juice, packaged cinnamon rolls and apples.  The employees were friendly and parking was free.  I had read parking is not enough, but I was lucky and found a spot right by my room.  I suggest this hotel highly.</t>
   </si>
   <si>
+    <t>Yvette H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r368771111-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -572,6 +644,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>MedicalADAGuest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r360203444-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -593,6 +668,9 @@
     <t>I called the front desk prior to my arrival to check on the status of a medically needed shower chair. The front desk clerk claimed the motel didn't have any shower chairs. The mgr overheard +, noting I'm handicapped, offered an ADA room for an additional $8 + tax, along w/ the previously "non-existent" requested shower chair. While other Super 8 properties don't charge a higher rate for an ADA room, the N Hollywood Super 8 does. I opted to have access to the shower chair + safety bars in the shower which I needed despite the price increase. Our room was spacious + clean w/ a fridge/mini freezer to refreeze my ice packs for my neck + back. Unfortunately our sleep was interrupted by the herds of lead-shoed centipedes + elephants going up + down the staircase our room was under. Breakfast was the typical modest continental fare including 2 cold cereals, milk, oj, coffee, + packaged danish; I'm glad there was 1 adult cereal option. Handicapped parking was at the opposite end from where the ADA room is located; this could be an issue for some disabled persons + those who travel with them. The parking lot was small + crowded, which could be an issue for people going put to enjoy the Hollywood area night life. My BF/partner suggests the ice bucket, water glasses, + bath towels not be placed by or above the (especially no lid)...I called the front desk prior to my arrival to check on the status of a medically needed shower chair. The front desk clerk claimed the motel didn't have any shower chairs. The mgr overheard +, noting I'm handicapped, offered an ADA room for an additional $8 + tax, along w/ the previously "non-existent" requested shower chair. While other Super 8 properties don't charge a higher rate for an ADA room, the N Hollywood Super 8 does. I opted to have access to the shower chair + safety bars in the shower which I needed despite the price increase. Our room was spacious + clean w/ a fridge/mini freezer to refreeze my ice packs for my neck + back. Unfortunately our sleep was interrupted by the herds of lead-shoed centipedes + elephants going up + down the staircase our room was under. Breakfast was the typical modest continental fare including 2 cold cereals, milk, oj, coffee, + packaged danish; I'm glad there was 1 adult cereal option. Handicapped parking was at the opposite end from where the ADA room is located; this could be an issue for some disabled persons + those who travel with them. The parking lot was small + crowded, which could be an issue for people going put to enjoy the Hollywood area night life. My BF/partner suggests the ice bucket, water glasses, + bath towels not be placed by or above the (especially no lid) toilet at motels as it's not hygienic. The motel is located in an industrial area that is a short drive to the Hollywood Fwy + parts of Van Nuys. More</t>
   </si>
   <si>
+    <t>Laurie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r354107395-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -611,6 +689,9 @@
     <t>Scary neighborhood.  Grafitti, security bars, etc evident all around.This motel has security bars on the office windows, and is walled in, with razor wire all around the perimeter.  The office reportedly wanted license plate numbers so that police patrolling the parking lot ("regular patrols" per the office) would know who belonged.  First room we were assigned reeked so bad of cigarette and other smoke, that with my asthma, it would have put me in the hospital had we tried to stay in it overnight-neither of us could even get beyond the entry and did not see the interior.  Second room we were offered smelled strongly of spray air freshener.  Carpet was filthy dirty and stained.  Arms on the chair were falling apart. Bedspread was stained. Discovered the (ground floor) window unlocked.We were not able to sleep well, because for two Caucasian women (who travel for work a lot, and stay in many hotels/motels every year) this was not a comfortable location-we simply did not feel  comfortable or safe.We spent the remaining 3 nights of our stay in the area, in another motel.  At least two others working the same job location as we were and were also booked here, refused to stay here at all.More</t>
   </si>
   <si>
+    <t>xenarulz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r352922517-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -629,6 +710,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>dilwarhusains</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r346264803-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -641,6 +725,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>livermorontraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r330403571-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -653,6 +740,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>ljr2612</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r330287628-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -671,6 +761,9 @@
     <t>We stayed here as it was one of the cheaper hotels near Universal Studios and we would only be sleeping here.  We arrived late (around 11pm) and the first thing you notice is the area - looks industrial, especially at night time.  When I went to check in I found out that they had already charged the room to my card.  I think that if we had been any later they would have given our room away as they were fully booked.  The check in staff were enclosed behind a glass wall.  Didn't fill me with much confidence of it being in a safe area.The room itself was boiling hot as it was located on the top floor.  It smelled badly and was not clean.  When we opened the fridge it smelled like something had died in there.  We were too scared to walk on bare feet as the carpet looked filthy.  Couldn't get comfortable in the room - was one of our worst night's sleep on our trip.We did not have breakfast at the hotel although it was included.  Just couldn't do it...This was our first Super 8 Hotel, and have stayed at better ones since.  Would never stay here again.More</t>
   </si>
   <si>
+    <t>Francis W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r319851076-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -692,6 +785,9 @@
     <t>I came here for a week's business, choosing the least expensive hotel in  the area, and I have been very surprised and pleased by my whole experience. The room was a good size, extremely clean, quiet enough, but most surprising is the fact that I've been able to get to central Los Angeles, Sunset strip and Santa Monica within 20 minutes or so every day. Even though it's much further from the centre than the places I've stayed before, incredibly, because it is so close to the freeway, the travel times have all been lower. It has also felt less frenetic than staying in Sunset strip or Silverlake, though it is certainly a less attractive area, because it's a lot less busy. In short, it was a very good today.More</t>
   </si>
   <si>
+    <t>iknightair</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r317842136-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -707,6 +803,9 @@
     <t xml:space="preserve">When I was there 5 out of 3 nights people were partying from 11 pm at night to 4 am and it was to the point me and my buddy could not sleep we went to tell the office about it nothing was done </t>
   </si>
   <si>
+    <t>jamie s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r315240460-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -728,6 +827,9 @@
     <t>I will start with the positives. The room was large and clean (although well used). The older gentleman on the counter was friendly and greeted us with a smile and a hello. It was a comfortable sleep and we had no major issues. The downsides were that the breakfast was very limited compared to other motel/hotels of a similar price range. The younger men on the counter (that we met, so apologies to others that we didn't meet) were not interested in welcoming us or even dragging their eyes from their phones whilst in our presence, The main downside to this motel was the area in which it was. There are many nicer areas to stay in and the surroundings are a bit downtrodden and rough. In fairness it was easy to get into town from here and we had no troubles, but we did stay indoors at night. So, as a round up, it is a perfectly good motel for the price, but the area, breakfast and enthusiasm could be better.More</t>
   </si>
   <si>
+    <t>Ruplogin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r309284380-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -746,6 +848,9 @@
     <t>As the title shows, this hotel just has everything you need and nothing more. 1. The location is near to universal studios, which was my primary reason to choose this hotel. The hollywood highway is just round the corner. 2. The sleep quality is very good. The beds were very comfortable. The AC was good. Fresh towels, clean bathroom. However the bath tub don't have a plug. 3. Best wi fi speed I've ever got in a hotel. 4. The breakfast has cereal and bread. That's it. Nothing else, no egg, no bacon, nothing else! Oh and a juice machine. But that's what most of the Super 8s are. 5. And there is no lift in the hotel.More</t>
   </si>
   <si>
+    <t>nancyhJ7628KL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r301112747-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -755,6 +860,9 @@
     <t>08/19/2015</t>
   </si>
   <si>
+    <t>S1611VMnicoleb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r293465333-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -767,6 +875,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Suzy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r288305049-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -782,6 +893,9 @@
     <t>We were very pleased with the accommodations.  The room was very clean and remarkably quiet for being on a busy street.  We would definitely stay there again.</t>
   </si>
   <si>
+    <t>Danoz82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r284047711-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -800,6 +914,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Shelly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r280189235-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -818,6 +935,9 @@
     <t>I called to let them know we would be arriving late in the evening as some other reviews suggested. Good plan. We bought our rooms in Price line and although I stated there were 5 of us we got two rooms with two beds total. Thankfully they had a roll away bed but we were charged $10 for it. Breakfast was danishes, white bread, raisin bran, frosted flakes, oranges, apples, yogurt, coffee, orange juice and some other juice. Small lobby to eat in. Staff was pleasant but we had to get the roll away bed upstairs by ourselves. Rooms are dated but clean. Don't know crime rate in neighborhood but definitely not a touristy area. We stayed because we needed an inexpensive hotel near Burbank Airport. It was a10 minute drive. Small airport. We were to our gates in just a few minutes. It was awesome. More</t>
   </si>
   <si>
+    <t>978fayem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r277081336-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -827,6 +947,9 @@
     <t>06/01/2015</t>
   </si>
   <si>
+    <t>Michelle J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r276086742-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -836,6 +959,9 @@
     <t>05/31/2015</t>
   </si>
   <si>
+    <t>Deb R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r271744828-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -845,6 +971,9 @@
     <t>05/13/2015</t>
   </si>
   <si>
+    <t>Marx H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r264906111-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -866,6 +995,9 @@
     <t>Stayed a week as I was transitioning. The office help was great, breakfast mediocre and parking lot gets crowded especially weekends. Book early Look for special rates up to 20% off, AARP(carry your card)  or senior to get a substantial discount. The area is somewhat seedy but probably safe. If you go south to Sherman Way from the motel, (on Laurel CYN)  there are places to eat, (El Pollo Loco, Chinese restaurant, Carl's Jr etc). There is also a 99 Cents only store, K Mart and other stores within a few minutes away if you continue west .Going further south on Laurel Cyn (street of hotel), there is Sears and other stores including a cheap movie theatre.More</t>
   </si>
   <si>
+    <t>Nelson M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r264576126-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -884,6 +1016,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>MikeStrachan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r264356566-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -902,6 +1037,9 @@
     <t>We drove from Palm Springs and stayed here the night before an early flight from Burbank. The staff at reception were friendly and checked us in with no problem. We were also given some help to find the nearest laundromat and how to find the rental car company the following morning. The room was neat and spacious, especially the bathroom area which is usually small in these types of accommodation, but not here.A previous reviewer complained about not being able to park their large truck - my solution is to not drive a large truck in the city... we were driving a camaro which isn't exactly small and had no problems parking.Free wifi which seems reasonably quick, and I can't comment on the breakfast as we had to leave early. This is an easy option for a quick stopover before flying out.More</t>
   </si>
   <si>
+    <t>Lamour J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r258213349-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -920,6 +1058,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Jennifer B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r256452931-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -938,6 +1079,9 @@
     <t>Motel room was very clean and grounds were nice.  However, I placed my "do not disturb" sign the outside of the door as I left for work for the day. Upon my return to my room that night, I found all of my things were put in a big trash bag and other items stuffed in my suitcase. Many of my toiletries, food and drink in the room refrigerator were thrown away!  The clerk on staff told me that there was a glitch in the computer which had showed me as checked out.  I had everything in my room, clearly showing I'd be coming back.  No one from Motel 8 called me on my cell to confirm if I had abandoned my belongings or if I was coming back. I had pre-paid for all my nights so it wasn't due to lack of payment.  I felt very violated with a personal invasion of my privacy as my things were being thrown around and thrown away. I was also not offered any sort of discount for that night or future night.. I was offered an apology and I understand that people make mistakes, but this one was incompetent, careless, and not handled at all responsibly.  More</t>
   </si>
   <si>
+    <t>Ilona H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r255484123-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -953,6 +1097,9 @@
     <t xml:space="preserve">this was a clean and very nice room that was comfortable for 4 adults! They held it for our late arrival and we would definitely stay there again. </t>
   </si>
   <si>
+    <t>Dick H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r249482397-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -974,6 +1121,9 @@
     <t>On this stay we opted for non smoking because my wife only smokes outside, anyway. That allowed us to get on the second floor further back. The room was much quieter with less traffic noise from the parking lot and people walking and talking outside our room. Again, the rooms were clean and housekeeping did there thing while we were out and about. If you are choosing a place because of the free breakfast, look elsewhere as there was even less offered than the last time we stayed and we chose to breakfast down the street. Another drawback is that there are no elevators to the second floor so that makes it a little tough for us old folks.More</t>
   </si>
   <si>
+    <t>RebekkaValentin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r248342457-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -995,6 +1145,9 @@
     <t>Standard and clean Super 8 close to a lot of things in Hollywood area. Stayed one night in December 2014. I was confused when I arrived, because I thought I had booked a different Super 8 - but was pleased to see that this hotel was clean and even though the area is not the best I felt safe. The area is very noisy and there were a lot of noise but that is expected when you stay in a big city! Room were very clean and light! It is about 30 minutes drive to Farmers Market, 25 minutes to Hollywood Blvd. and 20 minutes to Universal Studios. Breakfast was standard Super 8 with cereals, toast and juice. WiFi was very fast! If you need a clean and cheap place to stay for a night or two this is the place for you!More</t>
   </si>
   <si>
+    <t>Bec D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r246943106-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1016,6 +1169,9 @@
     <t>Excellent hotel for people doing Universal Studios! We booked this hotel for whilst we were in LA to explore the surrounds and found it great. We did however find you NEED a car to stay here as area isn't the best for walking around safety wise (it feels a bit dodgy) and its too far from places you'd want to walk to anyway. Room itself was great, very spacious &amp; clean. Wifi excellent-best we got the whole trip even better than our 5 star hotels. Staff friendly and continental breakfast a plus. Great hotel if wanting somewhere cheap and have a car to get around. Hotel very safe would re-book whenever we go to the USA again.More</t>
   </si>
   <si>
+    <t>Sheila L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r239482352-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1025,6 +1181,9 @@
     <t>11/12/2014</t>
   </si>
   <si>
+    <t>BessieLazy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r238928285-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1043,6 +1202,9 @@
     <t>I have stayed here twice this year. The first was time was back in May &amp; the owner was very friendly with me. He gave me room 216 that has a view of the hotel. The room was big for a king size bed. The second time was in September &amp;' this time I had 3 other people with me. I checked in late &amp; the guy who checked me in was rude. I asked him if the room he gave me was available the next few nights because i had only booked it for one night. He wouldn't give me answer. He would just tell me to call back. So i would. &amp; he kept telling me to call back over &amp; over again. After half an hour i grew tried of him telling me to call back. The next morning the owner was there &amp;' he was alot more helpful. Gave me a straight answer. Other than that i enjoy staying here. I would keep coming back. I like that the rooms are affordable &amp; clean. More</t>
   </si>
   <si>
+    <t>Eileen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r238187296-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1058,6 +1220,9 @@
     <t>Needed a clean decent place to stay just for the night. Rooms are big, clean and well appointed. Continent breakfast was just the basics but for the price of the room who cares! Had adjoining rooms and both were clean and well stocked with towels. Nice table and chairs for eating in room. Our room was big enough to accommodate all four of us to eat a decent pizza and cajun wings dinner delivered within half hour of ordering from local eatery. Being close to freeways was great.</t>
   </si>
   <si>
+    <t>stacyf2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r232444319-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1070,6 +1235,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Ortal T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r227616263-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1085,6 +1253,9 @@
     <t>worth the price, the room was clean and wide. the breakfast was less than basic and the coffee was horrible but we didn't count on it. the location is good, 10 min from Universal studios and 20-30 min from downtown LA. 1 hour from Malibu.</t>
   </si>
   <si>
+    <t>Cindy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r225808392-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1097,6 +1268,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>motelmisty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r217070951-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1115,6 +1289,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Claudia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r213396431-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1139,6 +1316,9 @@
     <t>The rooms were bigger than expected. They were clean. The staff were very friendly during check in and check out. The beds were comfortable. This is a great place to stay when visiting Hollywood or surrounding areas for the price.More</t>
   </si>
   <si>
+    <t>439Vince</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r210605849-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1148,6 +1328,9 @@
     <t>06/16/2014</t>
   </si>
   <si>
+    <t>Arne L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r203706501-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1160,6 +1343,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Mabu S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r203641341-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1175,6 +1361,9 @@
     <t xml:space="preserve">If you are visiting LA with a car (rental or your own), this is a great place to stay and save. Hotels close to Hollywood blvd is very expensive. But, this hotel should improve their breakfast. </t>
   </si>
   <si>
+    <t>Milan A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r202979727-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1182,6 +1371,9 @@
   </si>
   <si>
     <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Brandon L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r198693267-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -1232,6 +1424,9 @@
     <t>03/05/2014</t>
   </si>
   <si>
+    <t>Vincent B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r195827348-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1262,6 +1457,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Gail N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r189777743-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1274,6 +1472,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Douglas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r188890547-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1286,6 +1487,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Hunter R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r184890036-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1295,6 +1499,9 @@
     <t>11/16/2013</t>
   </si>
   <si>
+    <t>KimA220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r184836025-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1310,6 +1517,9 @@
     <t>We stayed at this motel for 8 nights and were very Happy. The staff were very friendly and helpful and always had a smile on their face. The room was a bit dated and old but it was clean and it had a bath. The bed was comfy and the tv and air conditioning worked. Also it had a fridge. What more could you ask for, for the price.  It was in a great location with the subway only a 2-3 min walk away. Just perfect.</t>
   </si>
   <si>
+    <t>Minivanhighway</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r181753863-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1328,6 +1538,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Greg F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r175994352-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1346,6 +1559,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>StoneColdFox44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r172424570-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1361,6 +1577,9 @@
     <t>For the price the cleanliness is great and a nice stay. Front desk guy hated his job for some reason, def not a people person then why does he do that job? Far from Hollywood have to take bus, and at night impossible to get taxi they drive away. Only thing is on laurel and chandler the 7/11 guys were awesome called us a taxi every night no problem. Bad area for families.</t>
   </si>
   <si>
+    <t>Antonio C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r169073308-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1373,6 +1592,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>valbill071</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r166084415-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1391,6 +1613,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>chazzehchaos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r165558790-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1409,6 +1634,9 @@
     <t>Having read the reviews for this hotel, we were a bit apprehensive about staying here. However, upon arriving, we found it to be a pleasant surprise. The staff seemed really friendly and helpful. And the room... Wow! It was huge! We had booked a king room, but we werent expecting this. A king bed, jacuzzi, big TV and a nice bathroom too. We really loved it. The only negative we had about the hotel was its location. The neighbourhood was a bit shady. We didn't feel comfortable wandering around there. As a result, we got cabs to most places. It was expensive but we felt safer this way. However, the hotel is really close to Hollywood, Universal Studios and Warner Bros Studios. :) breakfast was a bit plain with just doughnuts and bagels, but it was okay. We only ate here a couple of our six days so we didn't really mind.Overall, we had a really good time and if need be, we would probably stay here again.More</t>
   </si>
   <si>
+    <t>tdb83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r162534101-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1427,6 +1655,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Stefania E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r157887693-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1445,6 +1676,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Bradley J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r156068872-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1457,6 +1691,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Ashley A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r154546487-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1469,6 +1706,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>mayfounder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r147566343-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1487,6 +1727,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Brian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r146084033-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1508,6 +1751,9 @@
     <t>Stayed 4 nights at this motel on recent family trip (two rooms on upper floor in rear).  Location is close to CA-170, leading to U.S. 101 and other L.A. area highways.  Business area + residential neighborhoods surrounding motel - did not feel unsafe.  Facility seemed to be well maintained.  Entrance is on a main street - leads into a courtyard area behind the motel office.  No road or other noise was noticed during our stay.  Able to get a parking space each night, but lot is small and stayed full at night.Rooms were clean and adequately furnished, including a microwave and refrigerator.  The only significant concern was the continental breakfast:  plenty of sugary donuts, only a few bagels (that disappeared quickly), no toaster, milk, cereal, fruit, or half + half.  Recommend upgrading this area of service, even if the rates have to be raised a little.  Otherwise, an enjoyable stay at this facility!More</t>
   </si>
   <si>
+    <t>mary n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r144699885-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1526,6 +1772,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Melissa A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r141707055-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1539,6 +1788,9 @@
   </si>
   <si>
     <t>I stayed at this location last Thursday night. The hotel was completely booked. The air did not work correctly which made for a miserable night. Other than that everything was great.</t>
+  </si>
+  <si>
+    <t>Amermaiden</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r141697907-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -1564,6 +1816,9 @@
 It is agreed with other reviews that the "continental breakfast" is pathetic. Literally day old donuts Im convinced they partner with the bakery across the street to get rid of old donuts. I tried to be a good sport and try a "jelly filled" one to only have it leave a big dry dough ball (with...Stayed here for 3 nights Sept 20 thru 23rd 2012 on a trip for my daughters graduation from Art School and for a trip to Universal Studios. The room was decent size, clean bathroom. The carpet could have been cleaner but wasn't disgusting. It was stuffy and smelled when we entered. Glad I brought a scented candle. It was an extremely hot day in LA when we arrived. 100 degrees. The air worked well once it got going - other than if the drapes were closed all the way it blew up them instead of the room.  I was supposed to have a microwave but didn't. We ate out so that didn't matter much. The bed was ok. The sheets were clean and crisp first night. They had a few little stains that looked like rust or something the second night. Took notice but not enough for us to call and have them re-done as they appeared and smelled clean, just stained. They cleaned our room each day and replaced the towels. There was a small coffee maker and coffee was replenished each day.It is agreed with other reviews that the "continental breakfast" is pathetic. Literally day old donuts Im convinced they partner with the bakery across the street to get rid of old donuts. I tried to be a good sport and try a "jelly filled" one to only have it leave a big dry dough ball (with no jelly) in my throat that hurt and almost choked me when i swallowed it. Felt it scrape all the way down. Didn't try that again during our stay. The neighborhood is a bit rough. I wouldn't walk it. The man "Raj" who checked us in was ok. Not rude like others had reported.More</t>
   </si>
   <si>
+    <t>AussieWilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r141610558-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1576,6 +1831,9 @@
     <t>We would recommend this hotel to anyone, the rooms and surroundings are kept extremely clean and the management and staff are so helpful, courteous and friendly. The hotel is not in the best location for restaurants etc. and as we were without a vehicle we had to rely on public transport, after a couple of minor hiccups this turned out to be an excellent way to move around as we did for 4 days. We only had to walk across the road at the corner and onto the 230 bus and from there it was fairly easy for us.</t>
   </si>
   <si>
+    <t>Sandra P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r135509136-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1594,6 +1852,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>scfivegrands</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r135411846-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1609,6 +1870,9 @@
     <t>We had a spacious, clean and comfortable room during our stay.  I commented to my family that the sheets felt exceptionally crisp and fresh.  The location was very convenient to Burbank, Universal and Hollywood.  Although the neighborhood was not wonderful, the hotel is built in a U shape with just a driveway access and doors and parking are inside the U, so we felt safe and protected.  The continental breakfast was bagels (no cream cheese) and pastries, but they were nice ones from a bakery and not just your grocery store variety.  There was a microwave and refrigerator in our room.  The check in and check out process was quick and smooth and accurate.  We would stay in this property again if we are in the area.More</t>
   </si>
   <si>
+    <t>davidkuts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r133898451-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1627,6 +1891,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Cecilia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r122108273-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1648,6 +1915,9 @@
     <t>I travelled w/ my 1 1/2 year old and my husband, I booked for a non -smoking room w/ microwave and fridge. On the morning of my reservation day, I got a call from them saying there was a problem w/ my reservation. I called them back and said everything is "ok". We checked in, when I opened the door, I smell cigarette smoke, found 2 ash trays and matches in the room, no non-smoking sign on the door and no microwave. My husband went back to the office and they insisted that it is a non-smoking room. For a non-smoking family, cigarette smoke is very distinct, IT WAS A HORRIBLE STAY. I won't even give this place a 1.More</t>
   </si>
   <si>
+    <t>Dtlusty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r121672820-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1661,6 +1931,9 @@
   </si>
   <si>
     <t>I stayed here one night and found the room very well furnished and in great condition.  It was located away from the street (Laurel Canyon) and was quiet at night, a blessing in L.A.  There was a fridge and coffee maker in the room.  The Wi-Fi worked well and there is also an ethernet connection.  Breakfast offered donuts, bagels, coffee and juice and was satisfactory if minimal.  The staff were friendly and we had a decent rate.  This is a very good hotel, well-maintained in a central location.  I would prefer to stay here if I am every in Los Angeles again.</t>
+  </si>
+  <si>
+    <t>Tamrasto217</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r120562168-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -1686,6 +1959,9 @@
     <t>We stayed here because it was a quick drive to Universal Studios.  The grounds and parking lot were clean, no litter or debris.  The office was spotless.  There are awards for quality from Super 8 corporate hanging on the wall behind the front desk.  Check in was quick and easy.  The room was on the first floor, so we heard a little noise from upstairs but they were quiet after 10 PM.  The room was quite large (maybe because we were on the corner) and there was plenty of room for suitcases and hanging items.  Large enough for my 10 year old to run in circles and do cartwheels, lol.  The door was secure with a deadbolt as well as a chain lock.
   The carpet and bedding looked newer.  The beds were quite comfortable, firm with no sagging, clean and the sheets were fresh.  No signs of bedbugs on the mattresses or the surrounding area.  AC/heater/fan worked well. The refridgerator, microwave and coffee maker (included in the standard room) worked well and were clean.  The towels were soft and smelled fresh.  Tub/shower combo and toilet in bathroom, seperate vanity outside the bathroom.  Hair dryer by vanity.  Adequate shampoo, hand soap, body soap, coffee etc.
   The ice machine worked well and we were actually able to fill our cooler as we left.  We have stayed at a few places that actually charged for the ice, so this was a perk.  The...We stayed here because it was a quick drive to Universal Studios.  The grounds and parking lot were clean, no litter or debris.  The office was spotless.  There are awards for quality from Super 8 corporate hanging on the wall behind the front desk.  Check in was quick and easy.  The room was on the first floor, so we heard a little noise from upstairs but they were quiet after 10 PM.  The room was quite large (maybe because we were on the corner) and there was plenty of room for suitcases and hanging items.  Large enough for my 10 year old to run in circles and do cartwheels, lol.  The door was secure with a deadbolt as well as a chain lock.  The carpet and bedding looked newer.  The beds were quite comfortable, firm with no sagging, clean and the sheets were fresh.  No signs of bedbugs on the mattresses or the surrounding area.  AC/heater/fan worked well. The refridgerator, microwave and coffee maker (included in the standard room) worked well and were clean.  The towels were soft and smelled fresh.  Tub/shower combo and toilet in bathroom, seperate vanity outside the bathroom.  Hair dryer by vanity.  Adequate shampoo, hand soap, body soap, coffee etc.  The ice machine worked well and we were actually able to fill our cooler as we left.  We have stayed at a few places that actually charged for the ice, so this was a perk.  The breakfast was a plentiful supply of fresh doughnuts and bagels with butter available, juice, coffee etc.   No cream cheese, and no cereal or milk.  But the doughnuts were delicious!  As we were leaving to check out, we were able to look in most of the other rooms on the first floor as they were cleaning them and probably airing them out as it was kind of a cool day.  All of the rooms we saw were just as updated and clean as the one we had been in.  Some of them had a king bed instead of the two queens and there was a garden tub in the room, as opposed to just the tub/shower combo, so that may be something to ask about.   Overall, we enjoyed our stay, we would return if in the area, and I would recommend this location for the price range.More</t>
+  </si>
+  <si>
+    <t>FastFlo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r116496957-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -1717,6 +1993,9 @@
 Close to freeways and many San Fernando Valley attractions.  I liked it.  Very...I stayed here at the end of a long dirve from Oregon.  My goal was to arrive in LA and stop for the night.  Having tried another chain Motel, I thought I would give this one a try just for the sake of comparison for future knowledge.  it was very close to where I was going but I was tired. The only room available when I called was a smoking room but I took it.  The person who took my reservation was very friendly and knowledgable.  He also had a nice sense of humor and good manners.  The clerk who greeted me when I arrived wasn't Raj, but he was equally friendly and helpful.  I was afraid about the room smell, but was pleasantly surprised that the 'aroma' was very mild and unnoticeable within minutes.  Even when I left the room for a a quick shopping trip, the smell was barely noticable when I returned.  Not bad.There was no elevator but the motel is only 2 stories.  For an overnight, not a problem.  Adequate parking available near the room and out of the sun.  No pool.  Adequate ice machines and many near-by places to purchase dinner and/or snacks.  Refrigerator in the room.  Large room.  Large bathroom.  Large dressing room.  Large bed.  Nice sheets.  More than adequate AC.  HBO and the good cable channels.  Continental breakfast included.  Close to freeways and many San Fernando Valley attractions.  I liked it.  Very clean and quiet.  This is only the second time I have stayed at a Motel for the night while driving since I was a kid.  Clean and quiet really mean a lot to me.  I would actually stay here again if necessary and will also give other Super 8 motels a chance if I am too tired to drive on or haven't made reservations elsewhere.  I felt comfortable and secure for the night.More</t>
   </si>
   <si>
+    <t>TRAVELLER343Newbury</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r114595831-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1738,6 +2017,9 @@
     <t>My wife and I styaed at this Super 8 on the 31st May for two nights.We found the room very comfortable,I had booked this after changing from staying at Torrance thinking it would be closer to Universal Studios which we wished to visit.Indeed this was the case, and found in the hotel information regarding trips around the area.The manager Mr Patel was kind enough to telephone the bus company to arrange a pick up time for the tour of Universal Studios.The hotel itself was,as I have said very comfortable and the breakfast was more than sufficient with cereal, orange juice ,coffee and all manner of bagels, danish pastries and cakes (fresh this morning from baker) and more than enough to start the day.This is ideal if you do not wish to drive and would like to visit Universal Studios which take my advise and do visit.Just down the road we visited Sizzlers and ate two Rib Eye steaks that just melted in the mouth,salad bar,grilled onions a Heineken and Merlot total bill $55.35 and at todays rate works out at £34.59 what a bargain.All in all a very pleasant location and well worth vsiting this motelMore</t>
   </si>
   <si>
+    <t>showmediscount</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r112741970-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1756,6 +2038,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Cubdukat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r77285238-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1774,6 +2059,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>rwreyes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r68830461-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1795,6 +2083,9 @@
     <t>This hotel is about what you would expect a Super 8 Motel to be: a bed in a room. The rooms looked pretty clean, but one of ours strongly smelled of urine. I asked the manager for another room, and he said they were full. He was very nice about it, but we were stuck with the urine room. The location is a little sketchy, but all the hotel doors face inward. We were a little worried about our cars, so we made sure to get a spot in front of our room. The walls are really thin, and there were some really loud guests next to us, so I didn't sleep well the first night. If you're looking for a cheap room, you'll find it here. Just remember that you're only getting what you pay for.More</t>
   </si>
   <si>
+    <t>TheAnswer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r54547935-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1816,6 +2107,9 @@
     <t>The first few Super 8s I've stayed in since "stepping up" from Motel 6 have been pleasant experiences.  But as of late, it's been getting worse and worse.  Oh my good Lord.  This latest stint has truly hit rock bottom.  First of all the location is... wow, how should I put it... dangerous, seedy, abhorrent!  The non-smoking room reeked of cigarette.  Odor aside, however, the room amenities weren't bad.  Beds were clean and comfy.  Bathrooms were spacious, but basic.  The problems were with everything else.  The neighbors across the way were anything but neighborly.  Yelling and constant door-slamming made it very difficult to fall asleep.  The next day the outside hallway was littered with cigarette butts.  The guys at the main office swear there is no access code required for the "free wifi", but both of my devices prompt me for the access code.  They never did resolve the problem.  Breakfast was pathetic.  Cold pastries (beware diabetics).  Bagels but no toaster or cream cheese.  That's it.  No cereal, egg, waffle, or fruit.  The worst thing about it... at $75 per night, this hotel cost more than the room I got at the very nice Hard Rock Hotel in Las Vegas!  Shame on you Super 8!More</t>
   </si>
   <si>
+    <t>MSPjetsetter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r49136797-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1835,6 +2129,9 @@
   </si>
   <si>
     <t>I made a reservation at this motel for a weekend day stay.  However,  I canceled the reservation later on, well before the cancellation deadline.  I was shocked when I looked at my credit card statement and found out that the motel went on to charge my credit card for the one night stay. Needless to say, I called up the motel and complained about it.  They had the nerves to tell me that they charges had gone through and there is nothing they can do for me anymore.  There wasn't any point for me to argue with them anymore and I decided to dispute the credit card charge with my credit card company.I am a leisure traveler and I have stayed anywhere from a motel in Paris, Texas to a Hilton Suites in Paris, France at a rate of 24 lodgings per year.  Usually I never have any problem, but the management's service at this motel is by far the worst I've experienced.Take it from me, AVOID this motel at all cost.More</t>
+  </si>
+  <si>
+    <t>Dylan1967</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r48061944-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -1862,6 +2159,9 @@
 Nevertheless, the room was very clean. It was spacious (for a budget motel), with a large tv and a hairdryer. The microwave and small fridge came in very handy because on the first night we ventured out for some Thai food and were able to store and reheat our leftovers for the next day's lunch. Our king size bed was very comfortable and everything seemed clean and in working order. The complimentary pastries and coffee in the...If you've read the other reviews on this site you've already been warned about the neighborhood, but don't let that scare you away. I wouldn't call it dangerous and I never felt unsafe staying here, just be cautious if you're planning to walk around at night. But then, this is true of any neighborhood. This one LOOKS worse than it actually is. We booked here for two nights during a trip to SoCal planning to spend time at the beach and check out Griffith Observatory. We booked for value ($70 a night, or so) and sacrificed proximity to the beaches; with traffic it took often an hour and a half to drive to the coast. If you're in SoCal for the beaches, I would recommend booking a hotel closer to the coast and thereby saving yourself some gas money. It was a bit of false economy on our part to skimp on the hotel yet spend all that time commuting to the coast. Nevertheless, the room was very clean. It was spacious (for a budget motel), with a large tv and a hairdryer. The microwave and small fridge came in very handy because on the first night we ventured out for some Thai food and were able to store and reheat our leftovers for the next day's lunch. Our king size bed was very comfortable and everything seemed clean and in working order. The complimentary pastries and coffee in the morning were a nice treat, but make sure to get there early; they go fast! The front desk person never seemed to go out of his way to be particularly friendly, but the check-in/check-out process was always quick and efficient, which was my primary concern. One tip: If I were you I wouldn't park in the rear of the hotel nor get a rear-facing room. The junk yard / truck repair lot back there is rather unsightly and ominous-looking. I didn't experience an incident that made me worry for our safety or the integrity of my vehicle either time I stayed there, but be cautious and alert nonetheless.More</t>
   </si>
   <si>
+    <t>sromo522</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r47480035-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1880,6 +2180,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>greester0101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r29626324-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1898,6 +2201,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>maynard7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r26081161-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1913,6 +2219,9 @@
     <t>Nice room. Low-rent neighborhood, but I wouldn't call it dangerous. Bed was OK. Microwave oven and mini-fridge in room. Fairly quiet. Free internet terminal in the lobby. Friendly staff.  Would stay again when traveling on a budget in the LA area.</t>
   </si>
   <si>
+    <t>Mitesh.Sura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r23214232-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1931,6 +2240,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>Cineworker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r6822573-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1952,6 +2264,9 @@
     <t>This Super 8 Motel property has been recently fixed up and is in nice condition. The prices can't be beat in this area. It's very easy to get to and from and convenient to many valley areas. Just a few blocks from the 170 and 5 freeways. The immediate neighborhood is not very good, however as it's in a mixed light industrial area and not someplace you'd want to stroll around. The managers are a little taciturn but helpful if asked. Internet access is by wire only. No wifi. Park early if you want to be near your room. A larger uncovered lot is in the rear of the property. Be aware that the walls are paper thin and you can be at the mercy of the noise next door. Upstairs is quieter than downstairs. I plan on staying here when in the area on business.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r4896213-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1967,6 +2282,9 @@
     <t>Love is great, clean, the staff is very helpfull and friendly. its great value for the money that you paid. I stay 4 nights and all was confortable.have fridge and microwave  and also they have rooms with jacuzzi, the next time i going to hollywood or surrender areas I will go back to this hotel.</t>
   </si>
   <si>
+    <t>musicloverforever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r3713167-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1983,6 +2301,9 @@
   </si>
   <si>
     <t>Having read the other reviews of this hotel before we left I was afraid of what we might be getting ourselves into.  The area is shady.  We tried to hurry in the parking lot.  It is very well lit, but three women shouldn't be out in the wee hours anywhere really.  The parking lot curves around the building, if we had had to park back there I would have been worried.  However, for all three nights we parked right in front, there is plenty of room.  The service here was just great, we spoke to two different receptionists and both were very helpful.  The room was very big, the ceilings were high, the vanity was outside the big bathroom and there was a separate open closet area.  The room and bathroom were extremely clean and we are picky travelers.  The water pressure left a little to be desired, but it was fine.  They serve Winchell's donuts in the morning which happened to hit the spot for the three of us tired of hitting fast food for three weeks.  If you do reserve a room here, try to get one on the second floor, there is a locked stairwell that leads to the second floor.  However, there is no elevator so you'll have to lug everything up. If you're on the ground floor, no worries either.  Don't be scared of this hotel, it's a great value.  We had a great experience!More</t>
+  </si>
+  <si>
+    <t>billds</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r2517639-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -2007,6 +2328,9 @@
 On the down side, the bed sheets were almost like plastic. I've never felt linens like that before. I suspect they were selected for their durability. The bathroom is roomy - large enough for wheelchair access. Oddly, the commode was positioned in this large bathroom so that only adults with long arms can reach the bathroom tissue on the opposite wall without getting up.
 Pastries were available in the office in the morning, but they obviously get them from one of the many local Mexican businesses because although they were attractive looking, they had a taste that only someone raised south of the border would appreciate. The worst thing though was the poor neighborhood. It's an area in decline - run down and seedy looking (which may explain the multitude of not so hidden security cameras). It made us feel uncomfortable.
 The Super 8, North Hollywood is a super value. Clean rooms at bargain prices. It's a shame really, because if it weren't...This motel has a lot of good things going for it. It's a clean property with clean rooms and a friendly and helpful staff. The free broadband internet service was drop dead easy to use. The shower head delivered wonderful water volume unlike those miserable water saver types at some places, AND it was installed high enough on the wall that tall people like myself don't have to hunch down to get under it - much appreciated.On the down side, the bed sheets were almost like plastic. I've never felt linens like that before. I suspect they were selected for their durability. The bathroom is roomy - large enough for wheelchair access. Oddly, the commode was positioned in this large bathroom so that only adults with long arms can reach the bathroom tissue on the opposite wall without getting up.Pastries were available in the office in the morning, but they obviously get them from one of the many local Mexican businesses because although they were attractive looking, they had a taste that only someone raised south of the border would appreciate. The worst thing though was the poor neighborhood. It's an area in decline - run down and seedy looking (which may explain the multitude of not so hidden security cameras). It made us feel uncomfortable.The Super 8, North Hollywood is a super value. Clean rooms at bargain prices. It's a shame really, because if it weren't for the location, we would give this motel high marks.Bottom LineWould we stay there again? No.More</t>
+  </si>
+  <si>
+    <t>PennsylvaniaBee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d275366-r2308123-Super_8_by_Wyndham_North_Hollywood-Los_Angeles_California.html</t>
@@ -2526,43 +2850,47 @@
       <c r="A2" t="n">
         <v>50866</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2580,50 +2908,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>50866</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2637,50 +2969,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>50866</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2694,50 +3030,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>50866</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2761,50 +3101,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>50866</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2818,35 +3162,39 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>50866</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2854,10 +3202,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2878,36 +3226,37 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>50866</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2915,10 +3264,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2939,51 +3288,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>50866</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3003,48 +3353,52 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>50866</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -3068,50 +3422,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>50866</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>94</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3125,50 +3483,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>50866</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3186,50 +3548,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>50866</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3243,50 +3609,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>50866</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3300,50 +3670,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>50866</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3367,50 +3741,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>50866</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3424,50 +3802,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>50866</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3491,50 +3873,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>50866</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3548,50 +3934,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>50866</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3605,50 +3995,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>50866</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>157</v>
       </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>141</v>
-      </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3672,35 +4066,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>50866</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3708,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3732,36 +4130,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>50866</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3769,10 +4168,10 @@
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3793,51 +4192,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>50866</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3851,50 +4251,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>50866</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3914,35 +4318,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>50866</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3950,10 +4358,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3974,51 +4382,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>50866</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4042,50 +4451,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>50866</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4099,50 +4512,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>50866</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4162,35 +4579,39 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>50866</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -4198,10 +4619,10 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4222,49 +4643,50 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>50866</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4280,50 +4702,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>50866</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="J31" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4341,50 +4767,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>50866</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>243</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4398,50 +4828,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>50866</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>251</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="J33" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -4465,50 +4899,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>50866</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>257</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="J34" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="K34" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4526,50 +4964,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>50866</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>265</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="J35" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4589,35 +5031,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>50866</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4625,10 +5071,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4649,36 +5095,37 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>50866</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4686,10 +5133,10 @@
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4710,51 +5157,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>50866</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4778,50 +5226,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>50866</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>287</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="K39" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4835,50 +5287,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>50866</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>294</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="J40" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4892,35 +5348,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>50866</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>301</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="J41" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4928,10 +5388,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4952,36 +5412,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>50866</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>305</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="J42" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -4989,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5013,49 +5474,50 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>50866</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>309</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="J43" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -5079,50 +5541,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>50866</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>313</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="J44" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="L44" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5140,50 +5606,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>50866</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>321</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="J45" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="K45" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="L45" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5207,50 +5677,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>50866</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>328</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="J46" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="K46" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5270,50 +5744,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>50866</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>335</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="J47" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="K47" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5337,50 +5815,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>50866</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>342</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="J48" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="K48" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5404,50 +5886,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>50866</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>349</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="J49" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="K49" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5471,50 +5957,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>50866</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>308</v>
+        <v>357</v>
       </c>
       <c r="J50" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="K50" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5534,50 +6024,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50866</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>363</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="J51" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5595,50 +6089,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>50866</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>371</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
       <c r="J52" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="K52" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="L52" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5658,35 +6156,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>50866</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>379</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="J53" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5694,10 +6196,10 @@
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5718,42 +6220,43 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>50866</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>383</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="J54" t="s">
-        <v>333</v>
+        <v>386</v>
       </c>
       <c r="K54" t="s">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="L54" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5782,50 +6285,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>50866</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>390</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="J55" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="K55" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="O55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5843,35 +6350,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>50866</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>396</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="J56" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5879,10 +6390,10 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="O56" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5903,51 +6414,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>50866</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>401</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="J57" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5965,35 +6477,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>50866</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>407</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="J58" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -6001,10 +6517,10 @@
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6025,51 +6541,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>50866</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>412</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="J59" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="K59" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="O59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6089,50 +6606,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>50866</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>419</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>361</v>
+        <v>420</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="J60" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="K60" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="O60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6152,54 +6673,58 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="X60" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="Y60" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>50866</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>428</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="J61" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6221,41 +6746,45 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="X61" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="Y61" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>50866</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>432</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="J62" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
@@ -6263,10 +6792,10 @@
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="O62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6287,51 +6816,52 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>50866</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>437</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="J63" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="K63" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="L63" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="O63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6355,35 +6885,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>50866</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>443</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="J64" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6391,10 +6925,10 @@
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="O64" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6415,51 +6949,52 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>50866</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>447</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="J65" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="K65" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="L65" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6471,54 +7006,58 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="X65" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="Y65" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>50866</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="J66" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6540,54 +7079,58 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="X66" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="Y66" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>50866</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>460</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="J67" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="O67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6609,56 +7152,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="X67" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="Y67" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>50866</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>355</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="J68" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="K68" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="L68" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="O68" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6682,35 +7229,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>50866</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>471</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>406</v>
+        <v>472</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="J69" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6718,10 +7269,10 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="O69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6742,36 +7293,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>50866</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>476</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="J70" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6779,10 +7331,10 @@
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6795,36 +7347,37 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>50866</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>481</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="J71" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6832,10 +7385,10 @@
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="O71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6856,51 +7409,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>50866</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>485</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="J72" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="K72" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="L72" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6924,50 +7478,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>50866</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>491</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="J73" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="K73" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="O73" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6981,50 +7539,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>50866</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>498</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="J74" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7048,41 +7610,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>50866</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>505</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>434</v>
+        <v>506</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="J75" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="K75" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="L75" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
@@ -7111,35 +7677,39 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>50866</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>511</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="J76" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -7147,10 +7717,10 @@
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7163,51 +7733,52 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>50866</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>516</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="J77" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="K77" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="L77" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7231,41 +7802,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>50866</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>523</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="J78" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="K78" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
       <c r="L78" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -7294,50 +7869,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>50866</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>530</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>456</v>
+        <v>532</v>
       </c>
       <c r="J79" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
       <c r="K79" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="L79" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7361,50 +7940,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>50866</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>537</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>461</v>
+        <v>538</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>462</v>
+        <v>539</v>
       </c>
       <c r="J80" t="s">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="K80" t="s">
-        <v>464</v>
+        <v>541</v>
       </c>
       <c r="L80" t="s">
-        <v>465</v>
+        <v>542</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>466</v>
+        <v>543</v>
       </c>
       <c r="O80" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7428,35 +8011,39 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>465</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>50866</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>544</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="J81" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -7464,10 +8051,10 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>470</v>
+        <v>548</v>
       </c>
       <c r="O81" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7488,36 +8075,37 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>50866</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>549</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>471</v>
+        <v>550</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>472</v>
+        <v>551</v>
       </c>
       <c r="J82" t="s">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7525,10 +8113,10 @@
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="O82" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7549,51 +8137,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>50866</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>554</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>475</v>
+        <v>555</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="J83" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="K83" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="L83" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="O83" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7617,50 +8206,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>50866</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>561</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>482</v>
+        <v>563</v>
       </c>
       <c r="J84" t="s">
-        <v>483</v>
+        <v>564</v>
       </c>
       <c r="K84" t="s">
-        <v>484</v>
+        <v>565</v>
       </c>
       <c r="L84" t="s">
-        <v>485</v>
+        <v>566</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>486</v>
+        <v>567</v>
       </c>
       <c r="O84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7684,50 +8277,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>487</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>50866</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>569</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>489</v>
+        <v>571</v>
       </c>
       <c r="J85" t="s">
-        <v>490</v>
+        <v>572</v>
       </c>
       <c r="K85" t="s">
-        <v>491</v>
+        <v>573</v>
       </c>
       <c r="L85" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>493</v>
+        <v>575</v>
       </c>
       <c r="O85" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7751,50 +8348,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>50866</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>576</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>494</v>
+        <v>577</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>495</v>
+        <v>578</v>
       </c>
       <c r="J86" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="K86" t="s">
-        <v>497</v>
+        <v>580</v>
       </c>
       <c r="L86" t="s">
-        <v>498</v>
+        <v>581</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="O86" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -7818,50 +8419,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>498</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>50866</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>582</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>499</v>
+        <v>583</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="J87" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="K87" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
       <c r="L87" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7885,50 +8490,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>50866</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>588</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>504</v>
+        <v>589</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>505</v>
+        <v>590</v>
       </c>
       <c r="J88" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="K88" t="s">
         <v>36</v>
       </c>
       <c r="L88" t="s">
-        <v>507</v>
+        <v>592</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="O88" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -7952,50 +8561,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>507</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>50866</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>593</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>509</v>
+        <v>595</v>
       </c>
       <c r="J89" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="K89" t="s">
-        <v>511</v>
+        <v>597</v>
       </c>
       <c r="L89" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="O89" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8019,50 +8632,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>512</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>50866</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>600</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>515</v>
+        <v>602</v>
       </c>
       <c r="J90" t="s">
-        <v>510</v>
+        <v>596</v>
       </c>
       <c r="K90" t="s">
-        <v>516</v>
+        <v>603</v>
       </c>
       <c r="L90" t="s">
-        <v>517</v>
+        <v>604</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="O90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8086,50 +8703,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>518</v>
+        <v>605</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>50866</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>606</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>519</v>
+        <v>607</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>520</v>
+        <v>608</v>
       </c>
       <c r="J91" t="s">
-        <v>521</v>
+        <v>609</v>
       </c>
       <c r="K91" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
       <c r="L91" t="s">
-        <v>523</v>
+        <v>611</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>524</v>
+        <v>612</v>
       </c>
       <c r="O91" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -8153,50 +8774,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>523</v>
+        <v>611</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>50866</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>613</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>525</v>
+        <v>614</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>526</v>
+        <v>615</v>
       </c>
       <c r="J92" t="s">
-        <v>527</v>
+        <v>616</v>
       </c>
       <c r="K92" t="s">
-        <v>528</v>
+        <v>617</v>
       </c>
       <c r="L92" t="s">
-        <v>529</v>
+        <v>618</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>530</v>
+        <v>619</v>
       </c>
       <c r="O92" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P92" t="s"/>
       <c r="Q92" t="s"/>
@@ -8210,50 +8835,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>531</v>
+        <v>620</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>50866</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>621</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>532</v>
+        <v>622</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>533</v>
+        <v>623</v>
       </c>
       <c r="J93" t="s">
-        <v>534</v>
+        <v>624</v>
       </c>
       <c r="K93" t="s">
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="L93" t="s">
-        <v>536</v>
+        <v>626</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>530</v>
+        <v>619</v>
       </c>
       <c r="O93" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8277,50 +8906,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>536</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>50866</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>627</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>537</v>
+        <v>628</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
       <c r="J94" t="s">
-        <v>539</v>
+        <v>630</v>
       </c>
       <c r="K94" t="s">
-        <v>540</v>
+        <v>631</v>
       </c>
       <c r="L94" t="s">
-        <v>541</v>
+        <v>632</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>542</v>
+        <v>633</v>
       </c>
       <c r="O94" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8344,50 +8977,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>543</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>50866</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>635</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>544</v>
+        <v>636</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>545</v>
+        <v>637</v>
       </c>
       <c r="J95" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
       <c r="K95" t="s">
-        <v>547</v>
+        <v>639</v>
       </c>
       <c r="L95" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
       <c r="O95" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8407,50 +9044,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>550</v>
+        <v>642</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>50866</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>643</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>551</v>
+        <v>644</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>552</v>
+        <v>645</v>
       </c>
       <c r="J96" t="s">
-        <v>553</v>
+        <v>646</v>
       </c>
       <c r="K96" t="s">
-        <v>554</v>
+        <v>647</v>
       </c>
       <c r="L96" t="s">
-        <v>555</v>
+        <v>648</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>556</v>
+        <v>649</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8470,50 +9111,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>557</v>
+        <v>650</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>50866</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>651</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="J97" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="K97" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="L97" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="O97" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -8533,50 +9178,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>50866</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>658</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>564</v>
+        <v>659</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>565</v>
+        <v>660</v>
       </c>
       <c r="J98" t="s">
-        <v>566</v>
+        <v>661</v>
       </c>
       <c r="K98" t="s">
-        <v>567</v>
+        <v>662</v>
       </c>
       <c r="L98" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="O98" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8600,50 +9249,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>568</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>50866</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>665</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>570</v>
+        <v>666</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>571</v>
+        <v>667</v>
       </c>
       <c r="J99" t="s">
-        <v>572</v>
+        <v>668</v>
       </c>
       <c r="K99" t="s">
-        <v>573</v>
+        <v>669</v>
       </c>
       <c r="L99" t="s">
-        <v>574</v>
+        <v>670</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>575</v>
+        <v>671</v>
       </c>
       <c r="O99" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -8667,50 +9320,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>576</v>
+        <v>672</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>50866</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>673</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>577</v>
+        <v>674</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>578</v>
+        <v>675</v>
       </c>
       <c r="J100" t="s">
-        <v>579</v>
+        <v>676</v>
       </c>
       <c r="K100" t="s">
-        <v>580</v>
+        <v>677</v>
       </c>
       <c r="L100" t="s">
-        <v>581</v>
+        <v>678</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>582</v>
+        <v>679</v>
       </c>
       <c r="O100" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
@@ -8734,50 +9391,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>583</v>
+        <v>680</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>50866</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>681</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>584</v>
+        <v>682</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>585</v>
+        <v>683</v>
       </c>
       <c r="J101" t="s">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="K101" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="L101" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="O101" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="s"/>
@@ -8793,50 +9454,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>50866</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>689</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>591</v>
+        <v>690</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>592</v>
+        <v>691</v>
       </c>
       <c r="J102" t="s">
-        <v>593</v>
+        <v>692</v>
       </c>
       <c r="K102" t="s">
-        <v>594</v>
+        <v>693</v>
       </c>
       <c r="L102" t="s">
-        <v>595</v>
+        <v>694</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -8860,50 +9525,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>597</v>
+        <v>696</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>50866</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>697</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>598</v>
+        <v>698</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="J103" t="s">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K103" t="s">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="L103" t="s">
-        <v>602</v>
+        <v>702</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>603</v>
+        <v>703</v>
       </c>
       <c r="O103" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -8927,50 +9596,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>602</v>
+        <v>702</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>50866</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>704</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>604</v>
+        <v>705</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>605</v>
+        <v>706</v>
       </c>
       <c r="J104" t="s">
-        <v>606</v>
+        <v>707</v>
       </c>
       <c r="K104" t="s">
-        <v>607</v>
+        <v>708</v>
       </c>
       <c r="L104" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="O104" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P104" t="n">
         <v>3</v>
@@ -8994,41 +9667,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>50866</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>711</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>610</v>
+        <v>712</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>611</v>
+        <v>713</v>
       </c>
       <c r="J105" t="s">
-        <v>612</v>
+        <v>714</v>
       </c>
       <c r="K105" t="s">
-        <v>613</v>
+        <v>715</v>
       </c>
       <c r="L105" t="s">
-        <v>614</v>
+        <v>716</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
@@ -9057,50 +9734,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>614</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>50866</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>717</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>616</v>
+        <v>719</v>
       </c>
       <c r="J106" t="s">
-        <v>617</v>
+        <v>720</v>
       </c>
       <c r="K106" t="s">
-        <v>618</v>
+        <v>721</v>
       </c>
       <c r="L106" t="s">
-        <v>619</v>
+        <v>722</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>620</v>
+        <v>723</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9124,50 +9805,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>619</v>
+        <v>722</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>50866</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>724</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>621</v>
+        <v>725</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>622</v>
+        <v>726</v>
       </c>
       <c r="J107" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="K107" t="s">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="L107" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>626</v>
+        <v>730</v>
       </c>
       <c r="O107" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9191,41 +9876,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>627</v>
+        <v>731</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>50866</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>732</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>628</v>
+        <v>733</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>629</v>
+        <v>734</v>
       </c>
       <c r="J108" t="s">
-        <v>630</v>
+        <v>735</v>
       </c>
       <c r="K108" t="s">
-        <v>631</v>
+        <v>736</v>
       </c>
       <c r="L108" t="s">
-        <v>632</v>
+        <v>737</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
@@ -9252,41 +9941,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>632</v>
+        <v>737</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>50866</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>738</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>633</v>
+        <v>739</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="J109" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="K109" t="s">
-        <v>636</v>
+        <v>742</v>
       </c>
       <c r="L109" t="s">
-        <v>637</v>
+        <v>743</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
@@ -9313,41 +10006,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>638</v>
+        <v>744</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>50866</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>745</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>639</v>
+        <v>746</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>640</v>
+        <v>747</v>
       </c>
       <c r="J110" t="s">
-        <v>641</v>
+        <v>748</v>
       </c>
       <c r="K110" t="s">
-        <v>642</v>
+        <v>749</v>
       </c>
       <c r="L110" t="s">
-        <v>643</v>
+        <v>750</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
@@ -9374,41 +10071,45 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>644</v>
+        <v>751</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>50866</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>752</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>645</v>
+        <v>753</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>646</v>
+        <v>754</v>
       </c>
       <c r="J111" t="s">
-        <v>647</v>
+        <v>755</v>
       </c>
       <c r="K111" t="s">
-        <v>648</v>
+        <v>756</v>
       </c>
       <c r="L111" t="s">
-        <v>649</v>
+        <v>757</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -9427,7 +10128,7 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>649</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
